--- a/DOC/wyniki/WynikizIdealna.xlsx
+++ b/DOC/wyniki/WynikizIdealna.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21029"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF8F0239-B7DB-4377-B7FC-359A273A26D3}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8BF586FB-8523-4EFB-A655-534DFC4D445B}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Ogólnie" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="294" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="324" uniqueCount="35">
   <si>
     <t>ReagujNaBank</t>
   </si>
@@ -517,7 +517,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AB40"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A27" sqref="A27:XFD27"/>
     </sheetView>
   </sheetViews>
@@ -656,27 +656,27 @@
       </c>
       <c r="P2">
         <f>SUM('3 Talie'!B22)</f>
-        <v>34</v>
+        <v>74</v>
       </c>
       <c r="Q2">
         <f>SUM('3 Talie'!C22)</f>
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="R2">
         <f>SUM('3 Talie'!D22)</f>
-        <v>70</v>
+        <v>163</v>
       </c>
       <c r="S2">
         <f>SUM('3 Talie'!E22)</f>
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="T2">
         <f>SUM('3 Talie'!F22)</f>
-        <v>0.30909090909090908</v>
+        <v>0.30081300813008133</v>
       </c>
       <c r="U2">
         <f>SUM('3 Talie'!G22)</f>
-        <v>-315</v>
+        <v>-825</v>
       </c>
       <c r="W2">
         <f>SUM('4 Talie'!B22)</f>
@@ -757,27 +757,27 @@
       </c>
       <c r="P3">
         <f>SUM('3 Talie'!B23)</f>
-        <v>47</v>
+        <v>118</v>
       </c>
       <c r="Q3">
         <f>SUM('3 Talie'!C23)</f>
-        <v>11</v>
+        <v>24</v>
       </c>
       <c r="R3">
         <f>SUM('3 Talie'!D23)</f>
-        <v>55</v>
+        <v>112</v>
       </c>
       <c r="S3">
         <f>SUM('3 Talie'!E23)</f>
-        <v>6</v>
+        <v>17</v>
       </c>
       <c r="T3">
         <f>SUM('3 Talie'!F23)</f>
-        <v>0.41592920353982299</v>
+        <v>0.46456692913385828</v>
       </c>
       <c r="U3">
         <f>SUM('3 Talie'!G23)</f>
-        <v>-50</v>
+        <v>145</v>
       </c>
       <c r="W3">
         <f>SUM('4 Talie'!B23)</f>
@@ -858,27 +858,27 @@
       </c>
       <c r="P4">
         <f>SUM('3 Talie'!B24)</f>
-        <v>24</v>
+        <v>75</v>
       </c>
       <c r="Q4">
         <f>SUM('3 Talie'!C24)</f>
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="R4">
         <f>SUM('3 Talie'!D24)</f>
-        <v>91</v>
+        <v>186</v>
       </c>
       <c r="S4">
         <f>SUM('3 Talie'!E24)</f>
-        <v>5</v>
+        <v>18</v>
       </c>
       <c r="T4">
         <f>SUM('3 Talie'!F24)</f>
-        <v>0.20168067226890757</v>
+        <v>0.27985074626865669</v>
       </c>
       <c r="U4">
         <f>SUM('3 Talie'!G24)</f>
-        <v>-645</v>
+        <v>-1020</v>
       </c>
       <c r="W4">
         <f>SUM('4 Talie'!B24)</f>
@@ -959,27 +959,27 @@
       </c>
       <c r="P5">
         <f>SUM('3 Talie'!B25)</f>
-        <v>31</v>
+        <v>94</v>
       </c>
       <c r="Q5">
         <f>SUM('3 Talie'!C25)</f>
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="R5">
         <f>SUM('3 Talie'!D25)</f>
-        <v>80</v>
+        <v>156</v>
       </c>
       <c r="S5">
         <f>SUM('3 Talie'!E25)</f>
-        <v>6</v>
+        <v>17</v>
       </c>
       <c r="T5">
         <f>SUM('3 Talie'!F25)</f>
-        <v>0.25833333333333336</v>
+        <v>0.35205992509363299</v>
       </c>
       <c r="U5">
         <f>SUM('3 Talie'!G25)</f>
-        <v>-460</v>
+        <v>-535</v>
       </c>
       <c r="W5">
         <f>SUM('4 Talie'!B25)</f>
@@ -1060,27 +1060,27 @@
       </c>
       <c r="P6">
         <f>SUM('3 Talie'!B26)</f>
-        <v>49</v>
+        <v>111</v>
       </c>
       <c r="Q6">
         <f>SUM('3 Talie'!C26)</f>
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="R6">
         <f>SUM('3 Talie'!D26)</f>
-        <v>54</v>
+        <v>116</v>
       </c>
       <c r="S6">
         <f>SUM('3 Talie'!E26)</f>
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="T6">
         <f>SUM('3 Talie'!F26)</f>
-        <v>0.4336283185840708</v>
+        <v>0.44047619047619047</v>
       </c>
       <c r="U6">
         <f>SUM('3 Talie'!G26)</f>
-        <v>-25</v>
+        <v>15</v>
       </c>
       <c r="W6">
         <f>SUM('4 Talie'!B26)</f>
@@ -1161,27 +1161,27 @@
       </c>
       <c r="P7">
         <f>SUM('3 Talie'!B27)</f>
-        <v>46</v>
+        <v>113</v>
       </c>
       <c r="Q7">
         <f>SUM('3 Talie'!C27)</f>
-        <v>10</v>
+        <v>24</v>
       </c>
       <c r="R7">
         <f>SUM('3 Talie'!D27)</f>
-        <v>68</v>
+        <v>139</v>
       </c>
       <c r="S7">
         <f>SUM('3 Talie'!E27)</f>
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="T7">
         <f>SUM('3 Talie'!F27)</f>
-        <v>0.37096774193548387</v>
+        <v>0.40942028985507245</v>
       </c>
       <c r="U7">
         <f>SUM('3 Talie'!G27)</f>
-        <v>-190</v>
+        <v>-195</v>
       </c>
       <c r="W7">
         <f>SUM('4 Talie'!B27)</f>
@@ -1262,27 +1262,27 @@
       </c>
       <c r="P8">
         <f>SUM('3 Talie'!B28)</f>
-        <v>39</v>
+        <v>83</v>
       </c>
       <c r="Q8">
         <f>SUM('3 Talie'!C28)</f>
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="R8">
         <f>SUM('3 Talie'!D28)</f>
-        <v>44</v>
+        <v>79</v>
       </c>
       <c r="S8">
         <f>SUM('3 Talie'!E28)</f>
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="T8">
         <f>SUM('3 Talie'!F28)</f>
-        <v>0.43820224719101125</v>
+        <v>0.47976878612716761</v>
       </c>
       <c r="U8">
         <f>SUM('3 Talie'!G28)</f>
-        <v>-40</v>
+        <v>90</v>
       </c>
       <c r="W8">
         <f>SUM('4 Talie'!B28)</f>
@@ -1363,27 +1363,27 @@
       </c>
       <c r="P9">
         <f>SUM('3 Talie'!B29)</f>
-        <v>40</v>
+        <v>110</v>
       </c>
       <c r="Q9">
         <f>SUM('3 Talie'!C29)</f>
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="R9">
         <f>SUM('3 Talie'!D29)</f>
-        <v>64</v>
+        <v>123</v>
       </c>
       <c r="S9">
         <f>SUM('3 Talie'!E29)</f>
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="T9">
         <f>SUM('3 Talie'!F29)</f>
-        <v>0.34482758620689657</v>
+        <v>0.4296875</v>
       </c>
       <c r="U9">
         <f>SUM('3 Talie'!G29)</f>
-        <v>-215</v>
+        <v>-55</v>
       </c>
       <c r="W9">
         <f>SUM('4 Talie'!B29)</f>
@@ -1464,27 +1464,27 @@
       </c>
       <c r="P10">
         <f>SUM('3 Talie'!B30)</f>
-        <v>51</v>
+        <v>110</v>
       </c>
       <c r="Q10">
         <f>SUM('3 Talie'!C30)</f>
-        <v>11</v>
+        <v>24</v>
       </c>
       <c r="R10">
         <f>SUM('3 Talie'!D30)</f>
-        <v>51</v>
+        <v>120</v>
       </c>
       <c r="S10">
         <f>SUM('3 Talie'!E30)</f>
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="T10">
         <f>SUM('3 Talie'!F30)</f>
-        <v>0.45132743362831856</v>
+        <v>0.43307086614173229</v>
       </c>
       <c r="U10">
         <f>SUM('3 Talie'!G30)</f>
-        <v>25</v>
+        <v>-30</v>
       </c>
       <c r="W10">
         <f>SUM('4 Talie'!B30)</f>
@@ -1565,23 +1565,23 @@
       </c>
       <c r="P11">
         <f>SUM('3 Talie'!B31)</f>
-        <v>38</v>
+        <v>99</v>
       </c>
       <c r="Q11">
         <f>SUM('3 Talie'!C31)</f>
-        <v>5</v>
+        <v>16</v>
       </c>
       <c r="R11">
         <f>SUM('3 Talie'!D31)</f>
-        <v>44</v>
+        <v>109</v>
       </c>
       <c r="S11">
         <f>SUM('3 Talie'!E31)</f>
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="T11">
         <f>SUM('3 Talie'!F31)</f>
-        <v>0.43678160919540232</v>
+        <v>0.4419642857142857</v>
       </c>
       <c r="U11">
         <f>SUM('3 Talie'!G31)</f>
@@ -1666,27 +1666,27 @@
       </c>
       <c r="P12">
         <f>SUM('3 Talie'!B32)</f>
-        <v>41</v>
+        <v>106</v>
       </c>
       <c r="Q12">
         <f>SUM('3 Talie'!C32)</f>
-        <v>8</v>
+        <v>23</v>
       </c>
       <c r="R12">
         <f>SUM('3 Talie'!D32)</f>
-        <v>66</v>
+        <v>133</v>
       </c>
       <c r="S12">
         <f>SUM('3 Talie'!E32)</f>
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="T12">
         <f>SUM('3 Talie'!F32)</f>
-        <v>0.35652173913043478</v>
+        <v>0.40458015267175573</v>
       </c>
       <c r="U12">
         <f>SUM('3 Talie'!G32)</f>
-        <v>-225</v>
+        <v>-195</v>
       </c>
       <c r="W12">
         <f>SUM('4 Talie'!B32)</f>
@@ -1767,27 +1767,27 @@
       </c>
       <c r="P13">
         <f>SUM('3 Talie'!B33)</f>
-        <v>46</v>
+        <v>114</v>
       </c>
       <c r="Q13">
         <f>SUM('3 Talie'!C33)</f>
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="R13">
         <f>SUM('3 Talie'!D33)</f>
-        <v>73</v>
+        <v>154</v>
       </c>
       <c r="S13">
         <f>SUM('3 Talie'!E33)</f>
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="T13">
         <f>SUM('3 Talie'!F33)</f>
-        <v>0.359375</v>
+        <v>0.39860139860139859</v>
       </c>
       <c r="U13">
         <f>SUM('3 Talie'!G33)</f>
-        <v>-245</v>
+        <v>-345</v>
       </c>
       <c r="W13">
         <f>SUM('4 Talie'!B33)</f>
@@ -1868,27 +1868,27 @@
       </c>
       <c r="P14">
         <f>SUM('3 Talie'!B34)</f>
-        <v>65</v>
+        <v>208</v>
       </c>
       <c r="Q14">
         <f>SUM('3 Talie'!C34)</f>
-        <v>3</v>
+        <v>13</v>
       </c>
       <c r="R14">
         <f>SUM('3 Talie'!D34)</f>
-        <v>14</v>
+        <v>32</v>
       </c>
       <c r="S14">
         <f>SUM('3 Talie'!E34)</f>
-        <v>5</v>
+        <v>22</v>
       </c>
       <c r="T14">
         <f>SUM('3 Talie'!F34)</f>
-        <v>0.79268292682926833</v>
+        <v>0.82213438735177868</v>
       </c>
       <c r="U14">
         <f>SUM('3 Talie'!G34)</f>
-        <v>535</v>
+        <v>1870</v>
       </c>
       <c r="W14">
         <f>SUM('4 Talie'!B34)</f>
@@ -1966,39 +1966,39 @@
       </c>
       <c r="B21" s="1">
         <f>B2+I2+P2+W2</f>
-        <v>121</v>
+        <v>161</v>
       </c>
       <c r="C21" s="1">
         <f t="shared" ref="C21:E33" si="0">C2+J2+Q2+X2</f>
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="D21" s="1">
         <f t="shared" si="0"/>
-        <v>323</v>
+        <v>416</v>
       </c>
       <c r="E21" s="1">
         <f t="shared" si="0"/>
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="F21" s="1">
         <f>B21/(B21+C21+D21)</f>
-        <v>0.26133909287257018</v>
+        <v>0.26878130217028379</v>
       </c>
       <c r="G21" s="1">
         <f>(B21-D21+0.5*E21)*10</f>
-        <v>-1915</v>
+        <v>-2425</v>
       </c>
       <c r="H21" s="1">
         <f>B21+C21+D21</f>
-        <v>463</v>
+        <v>599</v>
       </c>
       <c r="I21" s="1">
         <f>D21/H21</f>
-        <v>0.69762419006479481</v>
+        <v>0.69449081803005008</v>
       </c>
       <c r="J21" s="2">
         <f>B21/D21</f>
-        <v>0.37461300309597523</v>
+        <v>0.38701923076923078</v>
       </c>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.25">
@@ -2007,39 +2007,39 @@
       </c>
       <c r="B22" s="1">
         <f t="shared" ref="B22:B33" si="1">B3+I3+P3+W3</f>
-        <v>198</v>
+        <v>269</v>
       </c>
       <c r="C22" s="1">
         <f t="shared" si="0"/>
-        <v>49</v>
+        <v>62</v>
       </c>
       <c r="D22" s="1">
         <f t="shared" si="0"/>
-        <v>242</v>
+        <v>299</v>
       </c>
       <c r="E22" s="1">
         <f t="shared" si="0"/>
-        <v>22</v>
+        <v>33</v>
       </c>
       <c r="F22" s="1">
         <f t="shared" ref="F22:F33" si="2">B22/(B22+C22+D22)</f>
-        <v>0.40490797546012269</v>
+        <v>0.42698412698412697</v>
       </c>
       <c r="G22" s="1">
         <f t="shared" ref="G22:G33" si="3">(B22-D22+0.5*E22)*10</f>
-        <v>-330</v>
+        <v>-135</v>
       </c>
       <c r="H22" s="1">
         <f t="shared" ref="H22:H33" si="4">B22+C22+D22</f>
-        <v>489</v>
+        <v>630</v>
       </c>
       <c r="I22" s="1">
         <f t="shared" ref="I22:I33" si="5">D22/H22</f>
-        <v>0.4948875255623722</v>
+        <v>0.47460317460317458</v>
       </c>
       <c r="J22" s="1">
         <f t="shared" ref="J22:J33" si="6">B22/D22</f>
-        <v>0.81818181818181823</v>
+        <v>0.89966555183946484</v>
       </c>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.25">
@@ -2048,39 +2048,39 @@
       </c>
       <c r="B23" s="1">
         <f t="shared" si="1"/>
-        <v>157</v>
+        <v>208</v>
       </c>
       <c r="C23" s="1">
         <f t="shared" si="0"/>
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="D23" s="1">
         <f t="shared" si="0"/>
-        <v>347</v>
+        <v>442</v>
       </c>
       <c r="E23" s="1">
         <f t="shared" si="0"/>
-        <v>24</v>
+        <v>37</v>
       </c>
       <c r="F23" s="1">
         <f t="shared" si="2"/>
-        <v>0.3007662835249042</v>
+        <v>0.30998509687034276</v>
       </c>
       <c r="G23" s="1">
         <f t="shared" si="3"/>
-        <v>-1780</v>
+        <v>-2155</v>
       </c>
       <c r="H23" s="1">
         <f t="shared" si="4"/>
-        <v>522</v>
+        <v>671</v>
       </c>
       <c r="I23" s="1">
         <f t="shared" si="5"/>
-        <v>0.66475095785440608</v>
+        <v>0.6587183308494784</v>
       </c>
       <c r="J23" s="4">
         <f t="shared" si="6"/>
-        <v>0.45244956772334294</v>
+        <v>0.47058823529411764</v>
       </c>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.25">
@@ -2089,39 +2089,39 @@
       </c>
       <c r="B24" s="1">
         <f t="shared" si="1"/>
-        <v>139</v>
+        <v>202</v>
       </c>
       <c r="C24" s="1">
         <f t="shared" si="0"/>
-        <v>34</v>
+        <v>42</v>
       </c>
       <c r="D24" s="1">
         <f t="shared" si="0"/>
-        <v>342</v>
+        <v>418</v>
       </c>
       <c r="E24" s="1">
         <f t="shared" si="0"/>
-        <v>25</v>
+        <v>36</v>
       </c>
       <c r="F24" s="1">
         <f t="shared" si="2"/>
-        <v>0.26990291262135924</v>
+        <v>0.30513595166163143</v>
       </c>
       <c r="G24" s="1">
         <f t="shared" si="3"/>
-        <v>-1905</v>
+        <v>-1980</v>
       </c>
       <c r="H24" s="1">
         <f t="shared" si="4"/>
-        <v>515</v>
+        <v>662</v>
       </c>
       <c r="I24" s="1">
         <f t="shared" si="5"/>
-        <v>0.66407766990291262</v>
+        <v>0.63141993957703924</v>
       </c>
       <c r="J24" s="2">
         <f t="shared" si="6"/>
-        <v>0.4064327485380117</v>
+        <v>0.48325358851674644</v>
       </c>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.25">
@@ -2130,39 +2130,39 @@
       </c>
       <c r="B25" s="1">
         <f t="shared" si="1"/>
-        <v>202</v>
+        <v>264</v>
       </c>
       <c r="C25" s="1">
         <f t="shared" si="0"/>
-        <v>49</v>
+        <v>64</v>
       </c>
       <c r="D25" s="1">
         <f t="shared" si="0"/>
-        <v>239</v>
+        <v>301</v>
       </c>
       <c r="E25" s="1">
         <f t="shared" si="0"/>
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="F25" s="1">
         <f t="shared" si="2"/>
-        <v>0.41224489795918368</v>
+        <v>0.41971383147853736</v>
       </c>
       <c r="G25" s="1">
         <f t="shared" si="3"/>
-        <v>-285</v>
+        <v>-245</v>
       </c>
       <c r="H25" s="1">
         <f t="shared" si="4"/>
-        <v>490</v>
+        <v>629</v>
       </c>
       <c r="I25" s="1">
         <f t="shared" si="5"/>
-        <v>0.48775510204081635</v>
+        <v>0.47853736089030208</v>
       </c>
       <c r="J25" s="1">
         <f t="shared" si="6"/>
-        <v>0.84518828451882844</v>
+        <v>0.87707641196013286</v>
       </c>
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.25">
@@ -2171,39 +2171,39 @@
       </c>
       <c r="B26" s="1">
         <f t="shared" si="1"/>
-        <v>223</v>
+        <v>290</v>
       </c>
       <c r="C26" s="1">
         <f t="shared" si="0"/>
-        <v>41</v>
+        <v>55</v>
       </c>
       <c r="D26" s="1">
         <f t="shared" si="0"/>
-        <v>274</v>
+        <v>345</v>
       </c>
       <c r="E26" s="1">
         <f t="shared" si="0"/>
-        <v>28</v>
+        <v>35</v>
       </c>
       <c r="F26" s="1">
         <f t="shared" si="2"/>
-        <v>0.41449814126394052</v>
+        <v>0.42028985507246375</v>
       </c>
       <c r="G26" s="1">
         <f t="shared" si="3"/>
-        <v>-370</v>
+        <v>-375</v>
       </c>
       <c r="H26" s="1">
         <f t="shared" si="4"/>
-        <v>538</v>
+        <v>690</v>
       </c>
       <c r="I26" s="1">
         <f t="shared" si="5"/>
-        <v>0.50929368029739774</v>
+        <v>0.5</v>
       </c>
       <c r="J26" s="1">
         <f t="shared" si="6"/>
-        <v>0.81386861313868608</v>
+        <v>0.84057971014492749</v>
       </c>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.25">
@@ -2212,39 +2212,39 @@
       </c>
       <c r="B27" s="1">
         <f t="shared" si="1"/>
-        <v>176</v>
+        <v>220</v>
       </c>
       <c r="C27" s="1">
         <f t="shared" si="0"/>
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="D27" s="1">
         <f t="shared" si="0"/>
-        <v>205</v>
+        <v>240</v>
       </c>
       <c r="E27" s="1">
         <f t="shared" si="0"/>
-        <v>19</v>
+        <v>27</v>
       </c>
       <c r="F27" s="1">
         <f t="shared" si="2"/>
-        <v>0.42822384428223842</v>
+        <v>0.44444444444444442</v>
       </c>
       <c r="G27" s="1">
         <f t="shared" si="3"/>
-        <v>-195</v>
+        <v>-65</v>
       </c>
       <c r="H27" s="1">
         <f t="shared" si="4"/>
-        <v>411</v>
+        <v>495</v>
       </c>
       <c r="I27" s="1">
         <f t="shared" si="5"/>
-        <v>0.49878345498783455</v>
+        <v>0.48484848484848486</v>
       </c>
       <c r="J27" s="1">
         <f t="shared" si="6"/>
-        <v>0.85853658536585364</v>
+        <v>0.91666666666666663</v>
       </c>
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.25">
@@ -2253,39 +2253,39 @@
       </c>
       <c r="B28" s="1">
         <f t="shared" si="1"/>
-        <v>218</v>
+        <v>288</v>
       </c>
       <c r="C28" s="1">
         <f t="shared" si="0"/>
-        <v>48</v>
+        <v>59</v>
       </c>
       <c r="D28" s="1">
         <f t="shared" si="0"/>
-        <v>236</v>
+        <v>295</v>
       </c>
       <c r="E28" s="1">
         <f t="shared" si="0"/>
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="F28" s="1">
         <f t="shared" si="2"/>
-        <v>0.43426294820717132</v>
+        <v>0.44859813084112149</v>
       </c>
       <c r="G28" s="6">
         <f t="shared" si="3"/>
-        <v>-65</v>
+        <v>95</v>
       </c>
       <c r="H28" s="1">
         <f t="shared" si="4"/>
-        <v>502</v>
+        <v>642</v>
       </c>
       <c r="I28" s="1">
         <f t="shared" si="5"/>
-        <v>0.47011952191235062</v>
+        <v>0.45950155763239875</v>
       </c>
       <c r="J28" s="3">
         <f t="shared" si="6"/>
-        <v>0.92372881355932202</v>
+        <v>0.97627118644067801</v>
       </c>
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.25">
@@ -2294,39 +2294,39 @@
       </c>
       <c r="B29" s="1">
         <f t="shared" si="1"/>
-        <v>210</v>
+        <v>269</v>
       </c>
       <c r="C29" s="1">
         <f t="shared" si="0"/>
-        <v>51</v>
+        <v>64</v>
       </c>
       <c r="D29" s="1">
         <f t="shared" si="0"/>
-        <v>232</v>
+        <v>301</v>
       </c>
       <c r="E29" s="1">
         <f t="shared" si="0"/>
-        <v>17</v>
+        <v>26</v>
       </c>
       <c r="F29" s="1">
         <f t="shared" si="2"/>
-        <v>0.42596348884381341</v>
+        <v>0.4242902208201893</v>
       </c>
       <c r="G29" s="1">
         <f t="shared" si="3"/>
-        <v>-135</v>
+        <v>-190</v>
       </c>
       <c r="H29" s="1">
         <f t="shared" si="4"/>
-        <v>493</v>
+        <v>634</v>
       </c>
       <c r="I29" s="1">
         <f t="shared" si="5"/>
-        <v>0.47058823529411764</v>
+        <v>0.47476340694006308</v>
       </c>
       <c r="J29" s="1">
         <f t="shared" si="6"/>
-        <v>0.90517241379310343</v>
+        <v>0.89368770764119598</v>
       </c>
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.25">
@@ -2335,23 +2335,23 @@
       </c>
       <c r="B30" s="1">
         <f t="shared" si="1"/>
-        <v>184</v>
+        <v>245</v>
       </c>
       <c r="C30" s="1">
         <f t="shared" si="0"/>
-        <v>35</v>
+        <v>46</v>
       </c>
       <c r="D30" s="1">
         <f t="shared" si="0"/>
-        <v>227</v>
+        <v>292</v>
       </c>
       <c r="E30" s="1">
         <f t="shared" si="0"/>
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="F30" s="1">
         <f t="shared" si="2"/>
-        <v>0.41255605381165922</v>
+        <v>0.42024013722126929</v>
       </c>
       <c r="G30" s="1">
         <f t="shared" si="3"/>
@@ -2359,15 +2359,15 @@
       </c>
       <c r="H30" s="1">
         <f t="shared" si="4"/>
-        <v>446</v>
+        <v>583</v>
       </c>
       <c r="I30" s="1">
         <f t="shared" si="5"/>
-        <v>0.50896860986547088</v>
+        <v>0.50085763293310459</v>
       </c>
       <c r="J30" s="1">
         <f t="shared" si="6"/>
-        <v>0.81057268722466957</v>
+        <v>0.83904109589041098</v>
       </c>
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.25">
@@ -2376,39 +2376,39 @@
       </c>
       <c r="B31" s="1">
         <f t="shared" si="1"/>
-        <v>222</v>
+        <v>287</v>
       </c>
       <c r="C31" s="1">
         <f t="shared" si="0"/>
-        <v>39</v>
+        <v>54</v>
       </c>
       <c r="D31" s="1">
         <f t="shared" si="0"/>
-        <v>242</v>
+        <v>309</v>
       </c>
       <c r="E31" s="1">
         <f t="shared" si="0"/>
-        <v>25</v>
+        <v>35</v>
       </c>
       <c r="F31" s="1">
         <f t="shared" si="2"/>
-        <v>0.44135188866799202</v>
+        <v>0.44153846153846155</v>
       </c>
       <c r="G31" s="6">
         <f t="shared" si="3"/>
-        <v>-75</v>
+        <v>-45</v>
       </c>
       <c r="H31" s="1">
         <f t="shared" si="4"/>
-        <v>503</v>
+        <v>650</v>
       </c>
       <c r="I31" s="1">
         <f t="shared" si="5"/>
-        <v>0.48111332007952284</v>
+        <v>0.47538461538461541</v>
       </c>
       <c r="J31" s="3">
         <f t="shared" si="6"/>
-        <v>0.9173553719008265</v>
+        <v>0.92880258899676371</v>
       </c>
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.25">
@@ -2417,39 +2417,39 @@
       </c>
       <c r="B32" s="1">
         <f t="shared" si="1"/>
-        <v>215</v>
+        <v>283</v>
       </c>
       <c r="C32" s="1">
         <f t="shared" si="0"/>
-        <v>34</v>
+        <v>43</v>
       </c>
       <c r="D32" s="1">
         <f t="shared" si="0"/>
-        <v>310</v>
+        <v>391</v>
       </c>
       <c r="E32" s="1">
         <f t="shared" si="0"/>
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="F32" s="1">
         <f t="shared" si="2"/>
-        <v>0.38461538461538464</v>
+        <v>0.39470013947001392</v>
       </c>
       <c r="G32" s="1">
         <f t="shared" si="3"/>
-        <v>-840</v>
+        <v>-940</v>
       </c>
       <c r="H32" s="1">
         <f t="shared" si="4"/>
-        <v>559</v>
+        <v>717</v>
       </c>
       <c r="I32" s="1">
         <f t="shared" si="5"/>
-        <v>0.554561717352415</v>
+        <v>0.54532775453277549</v>
       </c>
       <c r="J32" s="1">
         <f t="shared" si="6"/>
-        <v>0.69354838709677424</v>
+        <v>0.72378516624040923</v>
       </c>
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.25">
@@ -2458,49 +2458,49 @@
       </c>
       <c r="B33" s="1">
         <f t="shared" si="1"/>
-        <v>359</v>
+        <v>502</v>
       </c>
       <c r="C33" s="1">
         <f t="shared" si="0"/>
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="D33" s="1">
         <f t="shared" si="0"/>
-        <v>70</v>
+        <v>88</v>
       </c>
       <c r="E33" s="1">
         <f t="shared" si="0"/>
-        <v>27</v>
+        <v>44</v>
       </c>
       <c r="F33" s="1">
         <f t="shared" si="2"/>
-        <v>0.77874186550976143</v>
+        <v>0.79430379746835444</v>
       </c>
       <c r="G33" s="1">
         <f t="shared" si="3"/>
-        <v>3025</v>
+        <v>4360</v>
       </c>
       <c r="H33" s="1">
         <f t="shared" si="4"/>
-        <v>461</v>
+        <v>632</v>
       </c>
       <c r="I33" s="1">
         <f t="shared" si="5"/>
-        <v>0.15184381778741865</v>
+        <v>0.13924050632911392</v>
       </c>
       <c r="J33" s="3">
         <f t="shared" si="6"/>
-        <v>5.128571428571429</v>
+        <v>5.7045454545454541</v>
       </c>
     </row>
     <row r="35" spans="1:10" x14ac:dyDescent="0.25">
       <c r="I35" s="5">
         <f>SUM(J21:J32)/12</f>
-        <v>0.73497069117810099</v>
+        <v>0.76970309503339551</v>
       </c>
       <c r="J35">
         <f>SUM(J21:J33)/13</f>
-        <v>1.0729399786698954</v>
+        <v>1.1493063534574</v>
       </c>
     </row>
     <row r="38" spans="1:10" x14ac:dyDescent="0.25">
@@ -2520,11 +2520,11 @@
       </c>
       <c r="B39">
         <f>SUM(B21:B33)</f>
-        <v>2624</v>
+        <v>3488</v>
       </c>
       <c r="C39">
         <f>SUM(E21:E33)</f>
-        <v>296</v>
+        <v>418</v>
       </c>
       <c r="E39">
         <f>84/18</f>
@@ -2537,11 +2537,11 @@
       </c>
       <c r="B40">
         <f>SUM(B21:B32)</f>
-        <v>2265</v>
+        <v>2986</v>
       </c>
       <c r="C40">
         <f>SUM(E21:E32)</f>
-        <v>269</v>
+        <v>374</v>
       </c>
     </row>
   </sheetData>
@@ -6047,10 +6047,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{702A2972-7330-4B7B-A555-957EB83058FC}">
-  <dimension ref="A1:U34"/>
+  <dimension ref="A1:AB50"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="M34" sqref="M34"/>
+    <sheetView tabSelected="1" topLeftCell="D16" workbookViewId="0">
+      <selection activeCell="I51" sqref="I51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6058,7 +6058,7 @@
     <col min="1" max="1" width="18.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:28" x14ac:dyDescent="0.25">
       <c r="B1" t="s">
         <v>13</v>
       </c>
@@ -6104,8 +6104,23 @@
       <c r="U1" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="2" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="W1" t="s">
+        <v>13</v>
+      </c>
+      <c r="X1" t="s">
+        <v>14</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>15</v>
+      </c>
+      <c r="Z1" t="s">
+        <v>16</v>
+      </c>
+      <c r="AB1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -6157,8 +6172,24 @@
         <f>(P2-R2+S2/2)*10</f>
         <v>-90</v>
       </c>
-    </row>
-    <row r="3" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="W2">
+        <v>6</v>
+      </c>
+      <c r="X2">
+        <v>1</v>
+      </c>
+      <c r="Y2">
+        <v>20</v>
+      </c>
+      <c r="Z2">
+        <v>2</v>
+      </c>
+      <c r="AB2">
+        <f>(W2-Y2+Z2/2)*10</f>
+        <v>-130</v>
+      </c>
+    </row>
+    <row r="3" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>0</v>
       </c>
@@ -6210,8 +6241,24 @@
         <f t="shared" ref="U3:U14" si="2">(P3-R3+S3/2)*10</f>
         <v>-5</v>
       </c>
-    </row>
-    <row r="4" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="W3">
+        <v>15</v>
+      </c>
+      <c r="X3">
+        <v>1</v>
+      </c>
+      <c r="Y3">
+        <v>12</v>
+      </c>
+      <c r="Z3">
+        <v>2</v>
+      </c>
+      <c r="AB3">
+        <f t="shared" ref="AB3:AB14" si="3">(W3-Y3+Z3/2)*10</f>
+        <v>40</v>
+      </c>
+    </row>
+    <row r="4" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>2</v>
       </c>
@@ -6263,8 +6310,24 @@
         <f t="shared" si="2"/>
         <v>-155</v>
       </c>
-    </row>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="W4">
+        <v>8</v>
+      </c>
+      <c r="X4">
+        <v>0</v>
+      </c>
+      <c r="Y4">
+        <v>22</v>
+      </c>
+      <c r="Z4">
+        <v>1</v>
+      </c>
+      <c r="AB4">
+        <f t="shared" si="3"/>
+        <v>-135</v>
+      </c>
+    </row>
+    <row r="5" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>3</v>
       </c>
@@ -6316,8 +6379,24 @@
         <f t="shared" si="2"/>
         <v>-165</v>
       </c>
-    </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="W5">
+        <v>12</v>
+      </c>
+      <c r="X5">
+        <v>3</v>
+      </c>
+      <c r="Y5">
+        <v>14</v>
+      </c>
+      <c r="Z5">
+        <v>2</v>
+      </c>
+      <c r="AB5">
+        <f t="shared" si="3"/>
+        <v>-10</v>
+      </c>
+    </row>
+    <row r="6" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>4</v>
       </c>
@@ -6369,8 +6448,24 @@
         <f t="shared" si="2"/>
         <v>-50</v>
       </c>
-    </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="W6">
+        <v>11</v>
+      </c>
+      <c r="X6">
+        <v>1</v>
+      </c>
+      <c r="Y6">
+        <v>15</v>
+      </c>
+      <c r="Z6">
+        <v>1</v>
+      </c>
+      <c r="AB6">
+        <f t="shared" si="3"/>
+        <v>-35</v>
+      </c>
+    </row>
+    <row r="7" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>5</v>
       </c>
@@ -6422,8 +6517,24 @@
         <f t="shared" si="2"/>
         <v>-20</v>
       </c>
-    </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="W7">
+        <v>14</v>
+      </c>
+      <c r="X7">
+        <v>1</v>
+      </c>
+      <c r="Y7">
+        <v>15</v>
+      </c>
+      <c r="Z7">
+        <v>2</v>
+      </c>
+      <c r="AB7">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>6</v>
       </c>
@@ -6475,8 +6586,24 @@
         <f t="shared" si="2"/>
         <v>25</v>
       </c>
-    </row>
-    <row r="9" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="W8">
+        <v>6</v>
+      </c>
+      <c r="X8">
+        <v>0</v>
+      </c>
+      <c r="Y8">
+        <v>1</v>
+      </c>
+      <c r="Z8">
+        <v>1</v>
+      </c>
+      <c r="AB8">
+        <f t="shared" si="3"/>
+        <v>55</v>
+      </c>
+    </row>
+    <row r="9" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>7</v>
       </c>
@@ -6528,8 +6655,24 @@
         <f t="shared" si="2"/>
         <v>-45</v>
       </c>
-    </row>
-    <row r="10" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="W9">
+        <v>16</v>
+      </c>
+      <c r="X9">
+        <v>3</v>
+      </c>
+      <c r="Y9">
+        <v>10</v>
+      </c>
+      <c r="Z9">
+        <v>3</v>
+      </c>
+      <c r="AB9">
+        <f t="shared" si="3"/>
+        <v>75</v>
+      </c>
+    </row>
+    <row r="10" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>8</v>
       </c>
@@ -6581,8 +6724,24 @@
         <f t="shared" si="2"/>
         <v>-50</v>
       </c>
-    </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="W10">
+        <v>13</v>
+      </c>
+      <c r="X10">
+        <v>0</v>
+      </c>
+      <c r="Y10">
+        <v>15</v>
+      </c>
+      <c r="Z10">
+        <v>1</v>
+      </c>
+      <c r="AB10">
+        <f t="shared" si="3"/>
+        <v>-15</v>
+      </c>
+    </row>
+    <row r="11" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>9</v>
       </c>
@@ -6634,8 +6793,24 @@
         <f t="shared" si="2"/>
         <v>-35</v>
       </c>
-    </row>
-    <row r="12" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="W11">
+        <v>13</v>
+      </c>
+      <c r="X11">
+        <v>1</v>
+      </c>
+      <c r="Y11">
+        <v>13</v>
+      </c>
+      <c r="Z11">
+        <v>2</v>
+      </c>
+      <c r="AB11">
+        <f t="shared" si="3"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>10</v>
       </c>
@@ -6687,8 +6862,24 @@
         <f t="shared" si="2"/>
         <v>-90</v>
       </c>
-    </row>
-    <row r="13" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="W12">
+        <v>17</v>
+      </c>
+      <c r="X12">
+        <v>3</v>
+      </c>
+      <c r="Y12">
+        <v>10</v>
+      </c>
+      <c r="Z12">
+        <v>2</v>
+      </c>
+      <c r="AB12">
+        <f t="shared" si="3"/>
+        <v>80</v>
+      </c>
+    </row>
+    <row r="13" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>11</v>
       </c>
@@ -6740,8 +6931,24 @@
         <f t="shared" si="2"/>
         <v>-85</v>
       </c>
-    </row>
-    <row r="14" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="W13">
+        <v>14</v>
+      </c>
+      <c r="X13">
+        <v>2</v>
+      </c>
+      <c r="Y13">
+        <v>16</v>
+      </c>
+      <c r="Z13">
+        <v>2</v>
+      </c>
+      <c r="AB13">
+        <f t="shared" si="3"/>
+        <v>-10</v>
+      </c>
+    </row>
+    <row r="14" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>12</v>
       </c>
@@ -6793,8 +7000,24 @@
         <f t="shared" si="2"/>
         <v>215</v>
       </c>
-    </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="W14">
+        <v>24</v>
+      </c>
+      <c r="X14">
+        <v>1</v>
+      </c>
+      <c r="Y14">
+        <v>2</v>
+      </c>
+      <c r="Z14">
+        <v>1</v>
+      </c>
+      <c r="AB14">
+        <f t="shared" si="3"/>
+        <v>225</v>
+      </c>
+    </row>
+    <row r="21" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A21" s="1"/>
       <c r="B21" s="1" t="s">
         <v>13</v>
@@ -6829,307 +7052,529 @@
       <c r="N21" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="P21" t="s">
+        <v>13</v>
+      </c>
+      <c r="Q21" t="s">
+        <v>14</v>
+      </c>
+      <c r="R21" t="s">
+        <v>15</v>
+      </c>
+      <c r="S21" t="s">
+        <v>16</v>
+      </c>
+      <c r="U21" t="s">
+        <v>17</v>
+      </c>
+      <c r="W21" t="s">
+        <v>13</v>
+      </c>
+      <c r="X21" t="s">
+        <v>14</v>
+      </c>
+      <c r="Y21" t="s">
+        <v>15</v>
+      </c>
+      <c r="Z21" t="s">
+        <v>16</v>
+      </c>
+      <c r="AB21" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="22" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
         <v>1</v>
       </c>
       <c r="B22" s="1">
-        <f>B2+I2+P2+I22</f>
-        <v>34</v>
+        <f>B2+I2+P2+I22+W2 +P22+W22+P38+I38+B38</f>
+        <v>74</v>
       </c>
       <c r="C22" s="1">
-        <f t="shared" ref="C22:E34" si="3">C2+J2+Q2+J22</f>
-        <v>6</v>
+        <f t="shared" ref="C22:E34" si="4">C2+J2+Q2+J22+X2 +Q22+X22+Q38+J38+C38</f>
+        <v>9</v>
       </c>
       <c r="D22" s="1">
-        <f t="shared" si="3"/>
-        <v>70</v>
+        <f t="shared" si="4"/>
+        <v>163</v>
       </c>
       <c r="E22" s="1">
-        <f t="shared" si="3"/>
-        <v>9</v>
+        <f t="shared" si="4"/>
+        <v>13</v>
       </c>
       <c r="F22" s="1">
         <f>B22/(SUM(B22:D22))</f>
-        <v>0.30909090909090908</v>
+        <v>0.30081300813008133</v>
       </c>
       <c r="G22" s="1">
         <f>(B22-D22+E22/2)*10</f>
-        <v>-315</v>
+        <v>-825</v>
       </c>
       <c r="I22">
         <v>8</v>
       </c>
       <c r="J22">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K22">
         <v>18</v>
       </c>
       <c r="L22">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="N22">
         <f>(I22-K22+L22/2)*10</f>
-        <v>-75</v>
-      </c>
-    </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.25">
+        <v>-90</v>
+      </c>
+      <c r="P22">
+        <v>6</v>
+      </c>
+      <c r="Q22">
+        <v>1</v>
+      </c>
+      <c r="R22">
+        <v>21</v>
+      </c>
+      <c r="S22">
+        <v>3</v>
+      </c>
+      <c r="U22">
+        <f>(P22-R22+S22/2)*10</f>
+        <v>-135</v>
+      </c>
+      <c r="W22">
+        <v>9</v>
+      </c>
+      <c r="X22">
+        <v>0</v>
+      </c>
+      <c r="Y22">
+        <v>19</v>
+      </c>
+      <c r="Z22">
+        <v>0</v>
+      </c>
+      <c r="AB22">
+        <f>(W22-Y22+Z22/2)*10</f>
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="23" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B23" s="1">
-        <f t="shared" ref="B23:B34" si="4">B3+I3+P3+I23</f>
-        <v>47</v>
+        <f t="shared" ref="B23:B34" si="5">B3+I3+P3+I23+W3 +P23+W23+P39+I39+B39</f>
+        <v>118</v>
       </c>
       <c r="C23" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
+        <v>24</v>
+      </c>
+      <c r="D23" s="1">
+        <f t="shared" si="4"/>
+        <v>112</v>
+      </c>
+      <c r="E23" s="1">
+        <f t="shared" si="4"/>
+        <v>17</v>
+      </c>
+      <c r="F23" s="1">
+        <f t="shared" ref="F23:F34" si="6">B23/(SUM(B23:D23))</f>
+        <v>0.46456692913385828</v>
+      </c>
+      <c r="G23" s="1">
+        <f t="shared" ref="G23:G34" si="7">(B23-D23+E23/2)*10</f>
+        <v>145</v>
+      </c>
+      <c r="I23">
         <v>11</v>
       </c>
-      <c r="D23" s="1">
-        <f t="shared" si="3"/>
-        <v>55</v>
-      </c>
-      <c r="E23" s="1">
-        <f t="shared" si="3"/>
-        <v>6</v>
-      </c>
-      <c r="F23" s="1">
-        <f t="shared" ref="F23:F34" si="5">B23/(SUM(B23:D23))</f>
-        <v>0.41592920353982299</v>
-      </c>
-      <c r="G23" s="1">
-        <f t="shared" ref="G23:G34" si="6">(B23-D23+E23/2)*10</f>
-        <v>-50</v>
-      </c>
-      <c r="I23">
-        <v>10</v>
-      </c>
       <c r="J23">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="K23">
         <v>15</v>
       </c>
       <c r="L23">
+        <v>2</v>
+      </c>
+      <c r="N23">
+        <f t="shared" ref="N23:N34" si="8">(I23-K23+L23/2)*10</f>
+        <v>-30</v>
+      </c>
+      <c r="P23">
+        <v>14</v>
+      </c>
+      <c r="Q23">
+        <v>4</v>
+      </c>
+      <c r="R23">
+        <v>10</v>
+      </c>
+      <c r="S23">
+        <v>5</v>
+      </c>
+      <c r="U23">
+        <f t="shared" ref="U23:U34" si="9">(P23-R23+S23/2)*10</f>
+        <v>65</v>
+      </c>
+      <c r="W23">
+        <v>14</v>
+      </c>
+      <c r="X23">
         <v>3</v>
       </c>
-      <c r="N23">
-        <f t="shared" ref="N23:N34" si="7">(I23-K23+L23/2)*10</f>
-        <v>-35</v>
-      </c>
-    </row>
-    <row r="24" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="Y23">
+        <v>12</v>
+      </c>
+      <c r="Z23">
+        <v>1</v>
+      </c>
+      <c r="AB23">
+        <f t="shared" ref="AB23:AB34" si="10">(W23-Y23+Z23/2)*10</f>
+        <v>25</v>
+      </c>
+    </row>
+    <row r="24" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B24" s="1">
+        <f t="shared" si="5"/>
+        <v>75</v>
+      </c>
+      <c r="C24" s="1">
+        <f t="shared" si="4"/>
+        <v>7</v>
+      </c>
+      <c r="D24" s="1">
+        <f t="shared" si="4"/>
+        <v>186</v>
+      </c>
+      <c r="E24" s="1">
+        <f t="shared" si="4"/>
+        <v>18</v>
+      </c>
+      <c r="F24" s="1">
+        <f t="shared" si="6"/>
+        <v>0.27985074626865669</v>
+      </c>
+      <c r="G24" s="1">
+        <f t="shared" si="7"/>
+        <v>-1020</v>
+      </c>
+      <c r="I24">
+        <v>9</v>
+      </c>
+      <c r="J24">
+        <v>2</v>
+      </c>
+      <c r="K24">
+        <v>18</v>
+      </c>
+      <c r="L24">
+        <v>3</v>
+      </c>
+      <c r="N24">
+        <f t="shared" si="8"/>
+        <v>-75</v>
+      </c>
+      <c r="P24">
+        <v>10</v>
+      </c>
+      <c r="Q24">
+        <v>0</v>
+      </c>
+      <c r="R24">
+        <v>19</v>
+      </c>
+      <c r="S24">
+        <v>2</v>
+      </c>
+      <c r="U24">
+        <f t="shared" si="9"/>
+        <v>-80</v>
+      </c>
+      <c r="W24">
+        <v>9</v>
+      </c>
+      <c r="X24">
+        <v>0</v>
+      </c>
+      <c r="Y24">
+        <v>21</v>
+      </c>
+      <c r="Z24">
+        <v>2</v>
+      </c>
+      <c r="AB24">
+        <f t="shared" si="10"/>
+        <v>-110</v>
+      </c>
+    </row>
+    <row r="25" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A25" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B25" s="1">
+        <f t="shared" si="5"/>
+        <v>94</v>
+      </c>
+      <c r="C25" s="1">
+        <f t="shared" si="4"/>
+        <v>17</v>
+      </c>
+      <c r="D25" s="1">
+        <f t="shared" si="4"/>
+        <v>156</v>
+      </c>
+      <c r="E25" s="1">
+        <f t="shared" si="4"/>
+        <v>17</v>
+      </c>
+      <c r="F25" s="1">
+        <f t="shared" si="6"/>
+        <v>0.35205992509363299</v>
+      </c>
+      <c r="G25" s="1">
+        <f t="shared" si="7"/>
+        <v>-535</v>
+      </c>
+      <c r="I25">
+        <v>14</v>
+      </c>
+      <c r="J25">
+        <v>2</v>
+      </c>
+      <c r="K25">
+        <v>14</v>
+      </c>
+      <c r="L25">
+        <v>4</v>
+      </c>
+      <c r="N25">
+        <f t="shared" si="8"/>
+        <v>20</v>
+      </c>
+      <c r="P25">
+        <v>13</v>
+      </c>
+      <c r="Q25">
+        <v>1</v>
+      </c>
+      <c r="R25">
+        <v>16</v>
+      </c>
+      <c r="S25">
+        <v>4</v>
+      </c>
+      <c r="U25">
+        <f t="shared" si="9"/>
+        <v>-10</v>
+      </c>
+      <c r="W25">
+        <v>12</v>
+      </c>
+      <c r="X25">
+        <v>0</v>
+      </c>
+      <c r="Y25">
+        <v>17</v>
+      </c>
+      <c r="Z25">
+        <v>0</v>
+      </c>
+      <c r="AB25">
+        <f t="shared" si="10"/>
+        <v>-50</v>
+      </c>
+    </row>
+    <row r="26" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A26" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B26" s="1">
+        <f t="shared" si="5"/>
+        <v>111</v>
+      </c>
+      <c r="C26" s="1">
+        <f t="shared" si="4"/>
+        <v>25</v>
+      </c>
+      <c r="D26" s="1">
+        <f t="shared" si="4"/>
+        <v>116</v>
+      </c>
+      <c r="E26" s="1">
+        <f t="shared" si="4"/>
+        <v>13</v>
+      </c>
+      <c r="F26" s="1">
+        <f t="shared" si="6"/>
+        <v>0.44047619047619047</v>
+      </c>
+      <c r="G26" s="1">
+        <f t="shared" si="7"/>
+        <v>15</v>
+      </c>
+      <c r="I26">
+        <v>10</v>
+      </c>
+      <c r="J26">
+        <v>3</v>
+      </c>
+      <c r="K26">
+        <v>14</v>
+      </c>
+      <c r="L26">
+        <v>2</v>
+      </c>
+      <c r="N26">
+        <f t="shared" si="8"/>
+        <v>-30</v>
+      </c>
+      <c r="P26">
+        <v>14</v>
+      </c>
+      <c r="Q26">
+        <v>4</v>
+      </c>
+      <c r="R26">
+        <v>11</v>
+      </c>
+      <c r="S26">
+        <v>5</v>
+      </c>
+      <c r="U26">
+        <f t="shared" si="9"/>
+        <v>55</v>
+      </c>
+      <c r="W26">
+        <v>11</v>
+      </c>
+      <c r="X26">
+        <v>4</v>
+      </c>
+      <c r="Y26">
+        <v>14</v>
+      </c>
+      <c r="Z26">
+        <v>1</v>
+      </c>
+      <c r="AB26">
+        <f t="shared" si="10"/>
+        <v>-25</v>
+      </c>
+    </row>
+    <row r="27" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A27" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B27" s="1">
+        <f t="shared" si="5"/>
+        <v>113</v>
+      </c>
+      <c r="C27" s="1">
         <f t="shared" si="4"/>
         <v>24</v>
       </c>
-      <c r="C24" s="1">
-        <f t="shared" si="3"/>
-        <v>4</v>
-      </c>
-      <c r="D24" s="1">
-        <f t="shared" si="3"/>
-        <v>91</v>
-      </c>
-      <c r="E24" s="1">
-        <f t="shared" si="3"/>
-        <v>5</v>
-      </c>
-      <c r="F24" s="1">
-        <f t="shared" si="5"/>
-        <v>0.20168067226890757</v>
-      </c>
-      <c r="G24" s="1">
+      <c r="D27" s="1">
+        <f t="shared" si="4"/>
+        <v>139</v>
+      </c>
+      <c r="E27" s="1">
+        <f t="shared" si="4"/>
+        <v>13</v>
+      </c>
+      <c r="F27" s="1">
         <f t="shared" si="6"/>
-        <v>-645</v>
-      </c>
-      <c r="I24">
-        <v>5</v>
-      </c>
-      <c r="J24">
-        <v>1</v>
-      </c>
-      <c r="K24">
-        <v>23</v>
-      </c>
-      <c r="L24">
-        <v>1</v>
-      </c>
-      <c r="N24">
+        <v>0.40942028985507245</v>
+      </c>
+      <c r="G27" s="1">
         <f t="shared" si="7"/>
-        <v>-175</v>
-      </c>
-    </row>
-    <row r="25" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A25" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B25" s="1">
-        <f t="shared" si="4"/>
-        <v>31</v>
-      </c>
-      <c r="C25" s="1">
-        <f t="shared" si="3"/>
-        <v>9</v>
-      </c>
-      <c r="D25" s="1">
-        <f t="shared" si="3"/>
-        <v>80</v>
-      </c>
-      <c r="E25" s="1">
-        <f t="shared" si="3"/>
-        <v>6</v>
-      </c>
-      <c r="F25" s="1">
-        <f t="shared" si="5"/>
-        <v>0.25833333333333336</v>
-      </c>
-      <c r="G25" s="1">
-        <f t="shared" si="6"/>
-        <v>-460</v>
-      </c>
-      <c r="I25">
-        <v>7</v>
-      </c>
-      <c r="J25">
-        <v>2</v>
-      </c>
-      <c r="K25">
-        <v>21</v>
-      </c>
-      <c r="L25">
-        <v>1</v>
-      </c>
-      <c r="N25">
-        <f t="shared" si="7"/>
-        <v>-135</v>
-      </c>
-    </row>
-    <row r="26" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A26" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B26" s="1">
-        <f t="shared" si="4"/>
-        <v>49</v>
-      </c>
-      <c r="C26" s="1">
-        <f t="shared" si="3"/>
-        <v>10</v>
-      </c>
-      <c r="D26" s="1">
-        <f t="shared" si="3"/>
-        <v>54</v>
-      </c>
-      <c r="E26" s="1">
-        <f t="shared" si="3"/>
-        <v>5</v>
-      </c>
-      <c r="F26" s="1">
-        <f t="shared" si="5"/>
-        <v>0.4336283185840708</v>
-      </c>
-      <c r="G26" s="1">
-        <f t="shared" si="6"/>
-        <v>-25</v>
-      </c>
-      <c r="I26">
-        <v>11</v>
-      </c>
-      <c r="J26">
-        <v>3</v>
-      </c>
-      <c r="K26">
-        <v>15</v>
-      </c>
-      <c r="L26">
-        <v>4</v>
-      </c>
-      <c r="N26">
-        <f t="shared" si="7"/>
-        <v>-20</v>
-      </c>
-    </row>
-    <row r="27" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A27" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B27" s="1">
-        <f t="shared" si="4"/>
-        <v>46</v>
-      </c>
-      <c r="C27" s="1">
-        <f t="shared" si="3"/>
-        <v>10</v>
-      </c>
-      <c r="D27" s="1">
-        <f t="shared" si="3"/>
-        <v>68</v>
-      </c>
-      <c r="E27" s="1">
-        <f t="shared" si="3"/>
-        <v>6</v>
-      </c>
-      <c r="F27" s="1">
-        <f t="shared" si="5"/>
-        <v>0.37096774193548387</v>
-      </c>
-      <c r="G27" s="1">
-        <f t="shared" si="6"/>
-        <v>-190</v>
+        <v>-195</v>
       </c>
       <c r="I27">
         <v>12</v>
       </c>
       <c r="J27">
+        <v>3</v>
+      </c>
+      <c r="K27">
+        <v>16</v>
+      </c>
+      <c r="L27">
+        <v>3</v>
+      </c>
+      <c r="N27">
+        <f t="shared" si="8"/>
+        <v>-25</v>
+      </c>
+      <c r="P27">
+        <v>12</v>
+      </c>
+      <c r="Q27">
+        <v>3</v>
+      </c>
+      <c r="R27">
+        <v>15</v>
+      </c>
+      <c r="S27">
+        <v>0</v>
+      </c>
+      <c r="U27">
+        <f t="shared" si="9"/>
+        <v>-30</v>
+      </c>
+      <c r="W27">
+        <v>13</v>
+      </c>
+      <c r="X27">
         <v>2</v>
       </c>
-      <c r="K27">
-        <v>17</v>
-      </c>
-      <c r="L27">
-        <v>2</v>
-      </c>
-      <c r="N27">
-        <f t="shared" si="7"/>
-        <v>-40</v>
-      </c>
-    </row>
-    <row r="28" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="Y27">
+        <v>16</v>
+      </c>
+      <c r="Z27">
+        <v>1</v>
+      </c>
+      <c r="AB27">
+        <f t="shared" si="10"/>
+        <v>-25</v>
+      </c>
+    </row>
+    <row r="28" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
         <v>6</v>
       </c>
       <c r="B28" s="1">
+        <f t="shared" si="5"/>
+        <v>83</v>
+      </c>
+      <c r="C28" s="1">
         <f t="shared" si="4"/>
-        <v>39</v>
-      </c>
-      <c r="C28" s="1">
-        <f t="shared" si="3"/>
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="D28" s="1">
-        <f t="shared" si="3"/>
-        <v>44</v>
+        <f t="shared" si="4"/>
+        <v>79</v>
       </c>
       <c r="E28" s="1">
-        <f t="shared" si="3"/>
-        <v>2</v>
+        <f t="shared" si="4"/>
+        <v>10</v>
       </c>
       <c r="F28" s="1">
-        <f t="shared" si="5"/>
-        <v>0.43820224719101125</v>
+        <f t="shared" si="6"/>
+        <v>0.47976878612716761</v>
       </c>
       <c r="G28" s="1">
-        <f t="shared" si="6"/>
-        <v>-40</v>
+        <f t="shared" si="7"/>
+        <v>90</v>
       </c>
       <c r="I28">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J28">
         <v>0</v>
@@ -7138,280 +7583,1045 @@
         <v>0</v>
       </c>
       <c r="L28">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N28">
-        <f t="shared" si="7"/>
-        <v>10</v>
-      </c>
-    </row>
-    <row r="29" spans="1:14" x14ac:dyDescent="0.25">
+        <f t="shared" si="8"/>
+        <v>35</v>
+      </c>
+      <c r="P28">
+        <v>3</v>
+      </c>
+      <c r="Q28">
+        <v>0</v>
+      </c>
+      <c r="R28">
+        <v>0</v>
+      </c>
+      <c r="S28">
+        <v>1</v>
+      </c>
+      <c r="U28">
+        <f t="shared" si="9"/>
+        <v>35</v>
+      </c>
+      <c r="W28">
+        <v>14</v>
+      </c>
+      <c r="X28">
+        <v>1</v>
+      </c>
+      <c r="Y28">
+        <v>14</v>
+      </c>
+      <c r="Z28">
+        <v>1</v>
+      </c>
+      <c r="AB28">
+        <f t="shared" si="10"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="29" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
         <v>7</v>
       </c>
       <c r="B29" s="1">
+        <f t="shared" si="5"/>
+        <v>110</v>
+      </c>
+      <c r="C29" s="1">
         <f t="shared" si="4"/>
-        <v>40</v>
-      </c>
-      <c r="C29" s="1">
-        <f t="shared" si="3"/>
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="D29" s="1">
-        <f t="shared" si="3"/>
-        <v>64</v>
+        <f t="shared" si="4"/>
+        <v>123</v>
       </c>
       <c r="E29" s="1">
-        <f t="shared" si="3"/>
-        <v>5</v>
+        <f t="shared" si="4"/>
+        <v>15</v>
       </c>
       <c r="F29" s="1">
-        <f t="shared" si="5"/>
-        <v>0.34482758620689657</v>
+        <f t="shared" si="6"/>
+        <v>0.4296875</v>
       </c>
       <c r="G29" s="1">
-        <f t="shared" si="6"/>
-        <v>-215</v>
+        <f t="shared" si="7"/>
+        <v>-55</v>
       </c>
       <c r="I29">
         <v>10</v>
       </c>
       <c r="J29">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="K29">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="L29">
         <v>3</v>
       </c>
       <c r="N29">
-        <f t="shared" si="7"/>
-        <v>-45</v>
-      </c>
-    </row>
-    <row r="30" spans="1:14" x14ac:dyDescent="0.25">
+        <f t="shared" si="8"/>
+        <v>-55</v>
+      </c>
+      <c r="P29">
+        <v>14</v>
+      </c>
+      <c r="Q29">
+        <v>3</v>
+      </c>
+      <c r="R29">
+        <v>11</v>
+      </c>
+      <c r="S29">
+        <v>3</v>
+      </c>
+      <c r="U29">
+        <f t="shared" si="9"/>
+        <v>45</v>
+      </c>
+      <c r="W29">
+        <v>10</v>
+      </c>
+      <c r="X29">
+        <v>3</v>
+      </c>
+      <c r="Y29">
+        <v>16</v>
+      </c>
+      <c r="Z29">
+        <v>1</v>
+      </c>
+      <c r="AB29">
+        <f t="shared" si="10"/>
+        <v>-55</v>
+      </c>
+    </row>
+    <row r="30" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
         <v>8</v>
       </c>
       <c r="B30" s="1">
+        <f t="shared" si="5"/>
+        <v>110</v>
+      </c>
+      <c r="C30" s="1">
         <f t="shared" si="4"/>
-        <v>51</v>
-      </c>
-      <c r="C30" s="1">
-        <f t="shared" si="3"/>
-        <v>11</v>
+        <v>24</v>
       </c>
       <c r="D30" s="1">
-        <f t="shared" si="3"/>
-        <v>51</v>
+        <f t="shared" si="4"/>
+        <v>120</v>
       </c>
       <c r="E30" s="1">
-        <f t="shared" si="3"/>
-        <v>5</v>
+        <f t="shared" si="4"/>
+        <v>14</v>
       </c>
       <c r="F30" s="1">
-        <f t="shared" si="5"/>
-        <v>0.45132743362831856</v>
+        <f t="shared" si="6"/>
+        <v>0.43307086614173229</v>
       </c>
       <c r="G30" s="1">
-        <f t="shared" si="6"/>
-        <v>25</v>
+        <f t="shared" si="7"/>
+        <v>-30</v>
       </c>
       <c r="I30">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="J30">
         <v>4</v>
       </c>
       <c r="K30">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="L30">
+        <v>3</v>
+      </c>
+      <c r="N30">
+        <f t="shared" si="8"/>
+        <v>-65</v>
+      </c>
+      <c r="P30">
+        <v>14</v>
+      </c>
+      <c r="Q30">
         <v>4</v>
       </c>
-      <c r="N30">
-        <f t="shared" si="7"/>
-        <v>30</v>
-      </c>
-    </row>
-    <row r="31" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="R30">
+        <v>11</v>
+      </c>
+      <c r="S30">
+        <v>5</v>
+      </c>
+      <c r="U30">
+        <f t="shared" si="9"/>
+        <v>55</v>
+      </c>
+      <c r="W30">
+        <v>11</v>
+      </c>
+      <c r="X30">
+        <v>4</v>
+      </c>
+      <c r="Y30">
+        <v>14</v>
+      </c>
+      <c r="Z30">
+        <v>1</v>
+      </c>
+      <c r="AB30">
+        <f t="shared" si="10"/>
+        <v>-25</v>
+      </c>
+    </row>
+    <row r="31" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
         <v>9</v>
       </c>
       <c r="B31" s="1">
+        <f t="shared" si="5"/>
+        <v>99</v>
+      </c>
+      <c r="C31" s="1">
         <f t="shared" si="4"/>
-        <v>38</v>
-      </c>
-      <c r="C31" s="1">
-        <f t="shared" si="3"/>
-        <v>5</v>
+        <v>16</v>
       </c>
       <c r="D31" s="1">
-        <f t="shared" si="3"/>
-        <v>44</v>
+        <f t="shared" si="4"/>
+        <v>109</v>
       </c>
       <c r="E31" s="1">
-        <f t="shared" si="3"/>
-        <v>7</v>
+        <f t="shared" si="4"/>
+        <v>15</v>
       </c>
       <c r="F31" s="1">
-        <f t="shared" si="5"/>
-        <v>0.43678160919540232</v>
+        <f t="shared" si="6"/>
+        <v>0.4419642857142857</v>
       </c>
       <c r="G31" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>-25</v>
       </c>
       <c r="I31">
+        <v>13</v>
+      </c>
+      <c r="J31">
+        <v>2</v>
+      </c>
+      <c r="K31">
+        <v>14</v>
+      </c>
+      <c r="L31">
+        <v>2</v>
+      </c>
+      <c r="N31">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="P31">
+        <v>12</v>
+      </c>
+      <c r="Q31">
+        <v>4</v>
+      </c>
+      <c r="R31">
         <v>11</v>
       </c>
-      <c r="J31">
-        <v>4</v>
-      </c>
-      <c r="K31">
-        <v>15</v>
-      </c>
-      <c r="L31">
-        <v>5</v>
-      </c>
-      <c r="N31">
-        <f t="shared" si="7"/>
-        <v>-15</v>
-      </c>
-    </row>
-    <row r="32" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="S31">
+        <v>3</v>
+      </c>
+      <c r="U31">
+        <f t="shared" si="9"/>
+        <v>25</v>
+      </c>
+      <c r="W31">
+        <v>11</v>
+      </c>
+      <c r="X31">
+        <v>2</v>
+      </c>
+      <c r="Y31">
+        <v>16</v>
+      </c>
+      <c r="Z31">
+        <v>1</v>
+      </c>
+      <c r="AB31">
+        <f t="shared" si="10"/>
+        <v>-45</v>
+      </c>
+    </row>
+    <row r="32" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
         <v>10</v>
       </c>
       <c r="B32" s="1">
+        <f t="shared" si="5"/>
+        <v>106</v>
+      </c>
+      <c r="C32" s="1">
         <f t="shared" si="4"/>
-        <v>41</v>
-      </c>
-      <c r="C32" s="1">
-        <f t="shared" si="3"/>
-        <v>8</v>
+        <v>23</v>
       </c>
       <c r="D32" s="1">
-        <f t="shared" si="3"/>
-        <v>66</v>
+        <f t="shared" si="4"/>
+        <v>133</v>
       </c>
       <c r="E32" s="1">
-        <f t="shared" si="3"/>
-        <v>5</v>
+        <f t="shared" si="4"/>
+        <v>15</v>
       </c>
       <c r="F32" s="1">
-        <f t="shared" si="5"/>
-        <v>0.35652173913043478</v>
+        <f t="shared" si="6"/>
+        <v>0.40458015267175573</v>
       </c>
       <c r="G32" s="1">
-        <f t="shared" si="6"/>
-        <v>-225</v>
+        <f t="shared" si="7"/>
+        <v>-195</v>
       </c>
       <c r="I32">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="J32">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="K32">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="L32">
         <v>2</v>
       </c>
       <c r="N32">
-        <f t="shared" si="7"/>
-        <v>-50</v>
-      </c>
-    </row>
-    <row r="33" spans="1:14" x14ac:dyDescent="0.25">
+        <f t="shared" si="8"/>
+        <v>-30</v>
+      </c>
+      <c r="P32">
+        <v>11</v>
+      </c>
+      <c r="Q32">
+        <v>3</v>
+      </c>
+      <c r="R32">
+        <v>15</v>
+      </c>
+      <c r="S32">
+        <v>4</v>
+      </c>
+      <c r="U32">
+        <f t="shared" si="9"/>
+        <v>-20</v>
+      </c>
+      <c r="W32">
+        <v>10</v>
+      </c>
+      <c r="X32">
+        <v>4</v>
+      </c>
+      <c r="Y32">
+        <v>16</v>
+      </c>
+      <c r="Z32">
+        <v>1</v>
+      </c>
+      <c r="AB32">
+        <f t="shared" si="10"/>
+        <v>-55</v>
+      </c>
+    </row>
+    <row r="33" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
         <v>11</v>
       </c>
       <c r="B33" s="1">
+        <f t="shared" si="5"/>
+        <v>114</v>
+      </c>
+      <c r="C33" s="1">
         <f t="shared" si="4"/>
-        <v>46</v>
-      </c>
-      <c r="C33" s="1">
-        <f t="shared" si="3"/>
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="D33" s="1">
-        <f t="shared" si="3"/>
-        <v>73</v>
+        <f t="shared" si="4"/>
+        <v>154</v>
       </c>
       <c r="E33" s="1">
-        <f t="shared" si="3"/>
-        <v>5</v>
+        <f t="shared" si="4"/>
+        <v>11</v>
       </c>
       <c r="F33" s="1">
-        <f t="shared" si="5"/>
-        <v>0.359375</v>
+        <f t="shared" si="6"/>
+        <v>0.39860139860139859</v>
       </c>
       <c r="G33" s="1">
-        <f t="shared" si="6"/>
-        <v>-245</v>
+        <f t="shared" si="7"/>
+        <v>-345</v>
       </c>
       <c r="I33">
+        <v>17</v>
+      </c>
+      <c r="J33">
+        <v>1</v>
+      </c>
+      <c r="K33">
         <v>13</v>
       </c>
-      <c r="J33">
+      <c r="L33">
+        <v>2</v>
+      </c>
+      <c r="N33">
+        <f t="shared" si="8"/>
+        <v>50</v>
+      </c>
+      <c r="P33">
+        <v>14</v>
+      </c>
+      <c r="Q33">
         <v>3</v>
       </c>
-      <c r="K33">
-        <v>16</v>
-      </c>
-      <c r="L33">
-        <v>3</v>
-      </c>
-      <c r="N33">
-        <f t="shared" si="7"/>
-        <v>-15</v>
-      </c>
-    </row>
-    <row r="34" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="R33">
+        <v>15</v>
+      </c>
+      <c r="S33">
+        <v>1</v>
+      </c>
+      <c r="U33">
+        <f t="shared" si="9"/>
+        <v>-5</v>
+      </c>
+      <c r="W33">
+        <v>12</v>
+      </c>
+      <c r="X33">
+        <v>1</v>
+      </c>
+      <c r="Y33">
+        <v>19</v>
+      </c>
+      <c r="Z33">
+        <v>2</v>
+      </c>
+      <c r="AB33">
+        <f t="shared" si="10"/>
+        <v>-60</v>
+      </c>
+    </row>
+    <row r="34" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
         <v>12</v>
       </c>
       <c r="B34" s="1">
+        <f t="shared" si="5"/>
+        <v>208</v>
+      </c>
+      <c r="C34" s="1">
         <f t="shared" si="4"/>
-        <v>65</v>
-      </c>
-      <c r="C34" s="1">
-        <f t="shared" si="3"/>
+        <v>13</v>
+      </c>
+      <c r="D34" s="1">
+        <f t="shared" si="4"/>
+        <v>32</v>
+      </c>
+      <c r="E34" s="1">
+        <f t="shared" si="4"/>
+        <v>22</v>
+      </c>
+      <c r="F34" s="1">
+        <f t="shared" si="6"/>
+        <v>0.82213438735177868</v>
+      </c>
+      <c r="G34" s="1">
+        <f t="shared" si="7"/>
+        <v>1870</v>
+      </c>
+      <c r="I34">
+        <v>25</v>
+      </c>
+      <c r="J34">
+        <v>2</v>
+      </c>
+      <c r="K34">
+        <v>2</v>
+      </c>
+      <c r="L34">
         <v>3</v>
       </c>
-      <c r="D34" s="1">
-        <f t="shared" si="3"/>
+      <c r="N34">
+        <f t="shared" si="8"/>
+        <v>245</v>
+      </c>
+      <c r="P34">
+        <v>24</v>
+      </c>
+      <c r="Q34">
+        <v>2</v>
+      </c>
+      <c r="R34">
+        <v>3</v>
+      </c>
+      <c r="S34">
+        <v>5</v>
+      </c>
+      <c r="U34">
+        <f t="shared" si="9"/>
+        <v>235</v>
+      </c>
+      <c r="W34">
+        <v>23</v>
+      </c>
+      <c r="X34">
+        <v>1</v>
+      </c>
+      <c r="Y34">
+        <v>4</v>
+      </c>
+      <c r="Z34">
+        <v>3</v>
+      </c>
+      <c r="AB34">
+        <f t="shared" si="10"/>
+        <v>205</v>
+      </c>
+    </row>
+    <row r="37" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="B37" t="s">
+        <v>13</v>
+      </c>
+      <c r="C37" t="s">
         <v>14</v>
       </c>
-      <c r="E34" s="1">
-        <f t="shared" si="3"/>
+      <c r="D37" t="s">
+        <v>15</v>
+      </c>
+      <c r="E37" t="s">
+        <v>16</v>
+      </c>
+      <c r="G37" t="s">
+        <v>17</v>
+      </c>
+      <c r="I37" t="s">
+        <v>13</v>
+      </c>
+      <c r="J37" t="s">
+        <v>14</v>
+      </c>
+      <c r="K37" t="s">
+        <v>15</v>
+      </c>
+      <c r="L37" t="s">
+        <v>16</v>
+      </c>
+      <c r="N37" t="s">
+        <v>17</v>
+      </c>
+      <c r="P37" t="s">
+        <v>13</v>
+      </c>
+      <c r="Q37" t="s">
+        <v>14</v>
+      </c>
+      <c r="R37" t="s">
+        <v>15</v>
+      </c>
+      <c r="S37" t="s">
+        <v>16</v>
+      </c>
+      <c r="U37" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="38" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="B38">
+        <v>9</v>
+      </c>
+      <c r="C38">
+        <v>2</v>
+      </c>
+      <c r="D38">
+        <v>16</v>
+      </c>
+      <c r="E38">
+        <v>1</v>
+      </c>
+      <c r="G38">
+        <f>(B38-D38+E38/2)*10</f>
+        <v>-65</v>
+      </c>
+      <c r="I38">
+        <v>10</v>
+      </c>
+      <c r="J38">
+        <v>0</v>
+      </c>
+      <c r="K38">
+        <v>17</v>
+      </c>
+      <c r="L38">
+        <v>1</v>
+      </c>
+      <c r="N38">
+        <f>(I38-K38+L38/2)*10</f>
+        <v>-65</v>
+      </c>
+      <c r="U38">
+        <f>(P38-R38+S38/2)*10</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="B39">
+        <v>16</v>
+      </c>
+      <c r="C39">
+        <v>3</v>
+      </c>
+      <c r="D39">
+        <v>9</v>
+      </c>
+      <c r="E39">
+        <v>2</v>
+      </c>
+      <c r="G39">
+        <f t="shared" ref="G39:G50" si="11">(B39-D39+E39/2)*10</f>
+        <v>80</v>
+      </c>
+      <c r="I39">
+        <v>11</v>
+      </c>
+      <c r="J39">
+        <v>3</v>
+      </c>
+      <c r="K39">
+        <v>14</v>
+      </c>
+      <c r="L39">
+        <v>2</v>
+      </c>
+      <c r="N39">
+        <f t="shared" ref="N39:N50" si="12">(I39-K39+L39/2)*10</f>
+        <v>-20</v>
+      </c>
+      <c r="U39">
+        <f t="shared" ref="U39:U50" si="13">(P39-R39+S39/2)*10</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="B40">
+        <v>13</v>
+      </c>
+      <c r="C40">
+        <v>2</v>
+      </c>
+      <c r="D40">
+        <v>16</v>
+      </c>
+      <c r="E40">
+        <v>4</v>
+      </c>
+      <c r="G40">
+        <f t="shared" si="11"/>
+        <v>-10</v>
+      </c>
+      <c r="I40">
+        <v>7</v>
+      </c>
+      <c r="J40">
+        <v>0</v>
+      </c>
+      <c r="K40">
+        <v>22</v>
+      </c>
+      <c r="L40">
+        <v>2</v>
+      </c>
+      <c r="N40">
+        <f t="shared" si="12"/>
+        <v>-140</v>
+      </c>
+      <c r="U40">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="B41">
+        <v>12</v>
+      </c>
+      <c r="C41">
+        <v>2</v>
+      </c>
+      <c r="D41">
+        <v>16</v>
+      </c>
+      <c r="E41">
+        <v>2</v>
+      </c>
+      <c r="G41">
+        <f t="shared" si="11"/>
+        <v>-30</v>
+      </c>
+      <c r="I41">
+        <v>7</v>
+      </c>
+      <c r="J41">
+        <v>2</v>
+      </c>
+      <c r="K41">
+        <v>20</v>
+      </c>
+      <c r="L41">
+        <v>0</v>
+      </c>
+      <c r="N41">
+        <f t="shared" si="12"/>
+        <v>-130</v>
+      </c>
+      <c r="U41">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="B42">
+        <v>17</v>
+      </c>
+      <c r="C42">
+        <v>3</v>
+      </c>
+      <c r="D42">
+        <v>8</v>
+      </c>
+      <c r="E42">
+        <v>2</v>
+      </c>
+      <c r="G42">
+        <f t="shared" si="11"/>
+        <v>100</v>
+      </c>
+      <c r="I42">
+        <v>10</v>
+      </c>
+      <c r="J42">
+        <v>3</v>
+      </c>
+      <c r="K42">
+        <v>15</v>
+      </c>
+      <c r="L42">
+        <v>1</v>
+      </c>
+      <c r="N42">
+        <f t="shared" si="12"/>
+        <v>-45</v>
+      </c>
+      <c r="U42">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="B43">
+        <v>15</v>
+      </c>
+      <c r="C43">
+        <v>4</v>
+      </c>
+      <c r="D43">
+        <v>12</v>
+      </c>
+      <c r="E43">
+        <v>3</v>
+      </c>
+      <c r="G43">
+        <f t="shared" si="11"/>
+        <v>45</v>
+      </c>
+      <c r="I43">
+        <v>13</v>
+      </c>
+      <c r="J43">
+        <v>3</v>
+      </c>
+      <c r="K43">
+        <v>14</v>
+      </c>
+      <c r="L43">
+        <v>0</v>
+      </c>
+      <c r="N43">
+        <f t="shared" si="12"/>
+        <v>-10</v>
+      </c>
+      <c r="U43">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="B44">
+        <v>3</v>
+      </c>
+      <c r="C44">
+        <v>2</v>
+      </c>
+      <c r="D44">
+        <v>8</v>
+      </c>
+      <c r="E44">
+        <v>1</v>
+      </c>
+      <c r="G44">
+        <f t="shared" si="11"/>
+        <v>-45</v>
+      </c>
+      <c r="I44">
+        <v>16</v>
+      </c>
+      <c r="J44">
+        <v>2</v>
+      </c>
+      <c r="K44">
+        <v>12</v>
+      </c>
+      <c r="L44">
+        <v>3</v>
+      </c>
+      <c r="N44">
+        <f t="shared" si="12"/>
+        <v>55</v>
+      </c>
+      <c r="U44">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="B45">
+        <v>17</v>
+      </c>
+      <c r="C45">
+        <v>3</v>
+      </c>
+      <c r="D45">
+        <v>8</v>
+      </c>
+      <c r="E45">
+        <v>2</v>
+      </c>
+      <c r="G45">
+        <f t="shared" si="11"/>
+        <v>100</v>
+      </c>
+      <c r="I45">
+        <v>13</v>
+      </c>
+      <c r="J45">
+        <v>2</v>
+      </c>
+      <c r="K45">
+        <v>13</v>
+      </c>
+      <c r="L45">
+        <v>1</v>
+      </c>
+      <c r="N45">
+        <f t="shared" si="12"/>
         <v>5</v>
       </c>
-      <c r="F34" s="1">
-        <f t="shared" si="5"/>
-        <v>0.79268292682926833</v>
-      </c>
-      <c r="G34" s="1">
-        <f t="shared" si="6"/>
-        <v>535</v>
-      </c>
-      <c r="I34">
-        <v>0</v>
-      </c>
-      <c r="J34">
-        <v>0</v>
-      </c>
-      <c r="K34">
-        <v>0</v>
-      </c>
-      <c r="L34">
-        <v>0</v>
-      </c>
-      <c r="N34">
-        <f t="shared" si="7"/>
+      <c r="U45">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="B46">
+        <v>17</v>
+      </c>
+      <c r="C46">
+        <v>3</v>
+      </c>
+      <c r="D46">
+        <v>8</v>
+      </c>
+      <c r="E46">
+        <v>2</v>
+      </c>
+      <c r="G46">
+        <f t="shared" si="11"/>
+        <v>100</v>
+      </c>
+      <c r="I46">
+        <v>9</v>
+      </c>
+      <c r="J46">
+        <v>2</v>
+      </c>
+      <c r="K46">
+        <v>17</v>
+      </c>
+      <c r="L46">
+        <v>1</v>
+      </c>
+      <c r="N46">
+        <f t="shared" si="12"/>
+        <v>-75</v>
+      </c>
+      <c r="U46">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="B47">
+        <v>12</v>
+      </c>
+      <c r="C47">
+        <v>4</v>
+      </c>
+      <c r="D47">
+        <v>11</v>
+      </c>
+      <c r="E47">
+        <v>2</v>
+      </c>
+      <c r="G47">
+        <f t="shared" si="11"/>
+        <v>20</v>
+      </c>
+      <c r="I47">
+        <v>11</v>
+      </c>
+      <c r="J47">
+        <v>2</v>
+      </c>
+      <c r="K47">
+        <v>15</v>
+      </c>
+      <c r="L47">
+        <v>3</v>
+      </c>
+      <c r="N47">
+        <f t="shared" si="12"/>
+        <v>-25</v>
+      </c>
+      <c r="U47">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="B48">
+        <v>13</v>
+      </c>
+      <c r="C48">
+        <v>2</v>
+      </c>
+      <c r="D48">
+        <v>14</v>
+      </c>
+      <c r="E48">
+        <v>0</v>
+      </c>
+      <c r="G48">
+        <f t="shared" si="11"/>
+        <v>-10</v>
+      </c>
+      <c r="I48">
+        <v>13</v>
+      </c>
+      <c r="J48">
+        <v>4</v>
+      </c>
+      <c r="K48">
+        <v>13</v>
+      </c>
+      <c r="L48">
+        <v>3</v>
+      </c>
+      <c r="N48">
+        <f t="shared" si="12"/>
+        <v>15</v>
+      </c>
+      <c r="U48">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="B49">
+        <v>8</v>
+      </c>
+      <c r="C49">
+        <v>3</v>
+      </c>
+      <c r="D49">
+        <v>20</v>
+      </c>
+      <c r="E49">
+        <v>1</v>
+      </c>
+      <c r="G49">
+        <f t="shared" si="11"/>
+        <v>-115</v>
+      </c>
+      <c r="I49">
+        <v>16</v>
+      </c>
+      <c r="J49">
+        <v>2</v>
+      </c>
+      <c r="K49">
+        <v>14</v>
+      </c>
+      <c r="L49">
+        <v>1</v>
+      </c>
+      <c r="N49">
+        <f t="shared" si="12"/>
+        <v>25</v>
+      </c>
+      <c r="U49">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="B50">
+        <v>24</v>
+      </c>
+      <c r="C50">
+        <v>3</v>
+      </c>
+      <c r="D50">
+        <v>2</v>
+      </c>
+      <c r="E50">
+        <v>3</v>
+      </c>
+      <c r="G50">
+        <f t="shared" si="11"/>
+        <v>235</v>
+      </c>
+      <c r="I50">
+        <v>23</v>
+      </c>
+      <c r="J50">
+        <v>1</v>
+      </c>
+      <c r="K50">
+        <v>5</v>
+      </c>
+      <c r="L50">
+        <v>2</v>
+      </c>
+      <c r="N50">
+        <f t="shared" si="12"/>
+        <v>190</v>
+      </c>
+      <c r="U50">
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
     </row>

--- a/DOC/wyniki/WynikizIdealna.xlsx
+++ b/DOC/wyniki/WynikizIdealna.xlsx
@@ -3,16 +3,15 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21029"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8BF586FB-8523-4EFB-A655-534DFC4D445B}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BF63215F-0489-4591-97E7-89F769FE3DEC}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Ogólnie" sheetId="1" r:id="rId1"/>
     <sheet name="1 Talia" sheetId="2" r:id="rId2"/>
     <sheet name="2 Talie" sheetId="3" r:id="rId3"/>
     <sheet name="3 Talie" sheetId="4" r:id="rId4"/>
-    <sheet name="4 Talie" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -30,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="324" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="277" uniqueCount="35">
   <si>
     <t>ReagujNaBank</t>
   </si>
@@ -517,8 +516,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AB40"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A27" sqref="A27:XFD27"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="M26" sqref="M26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -678,30 +677,6 @@
         <f>SUM('3 Talie'!G22)</f>
         <v>-825</v>
       </c>
-      <c r="W2">
-        <f>SUM('4 Talie'!B22)</f>
-        <v>0</v>
-      </c>
-      <c r="X2">
-        <f>SUM('4 Talie'!C22)</f>
-        <v>0</v>
-      </c>
-      <c r="Y2">
-        <f>SUM('4 Talie'!D22)</f>
-        <v>0</v>
-      </c>
-      <c r="Z2">
-        <f>SUM('4 Talie'!E22)</f>
-        <v>0</v>
-      </c>
-      <c r="AA2" t="e">
-        <f>SUM('4 Talie'!F22)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AB2">
-        <f>SUM('4 Talie'!G22)</f>
-        <v>0</v>
-      </c>
     </row>
     <row r="3" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
@@ -779,30 +754,6 @@
         <f>SUM('3 Talie'!G23)</f>
         <v>145</v>
       </c>
-      <c r="W3">
-        <f>SUM('4 Talie'!B23)</f>
-        <v>0</v>
-      </c>
-      <c r="X3">
-        <f>SUM('4 Talie'!C23)</f>
-        <v>0</v>
-      </c>
-      <c r="Y3">
-        <f>SUM('4 Talie'!D23)</f>
-        <v>0</v>
-      </c>
-      <c r="Z3">
-        <f>SUM('4 Talie'!E23)</f>
-        <v>0</v>
-      </c>
-      <c r="AA3" t="e">
-        <f>SUM('4 Talie'!F23)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AB3">
-        <f>SUM('4 Talie'!G23)</f>
-        <v>0</v>
-      </c>
     </row>
     <row r="4" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
@@ -880,30 +831,6 @@
         <f>SUM('3 Talie'!G24)</f>
         <v>-1020</v>
       </c>
-      <c r="W4">
-        <f>SUM('4 Talie'!B24)</f>
-        <v>0</v>
-      </c>
-      <c r="X4">
-        <f>SUM('4 Talie'!C24)</f>
-        <v>0</v>
-      </c>
-      <c r="Y4">
-        <f>SUM('4 Talie'!D24)</f>
-        <v>0</v>
-      </c>
-      <c r="Z4">
-        <f>SUM('4 Talie'!E24)</f>
-        <v>0</v>
-      </c>
-      <c r="AA4" t="e">
-        <f>SUM('4 Talie'!F24)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AB4">
-        <f>SUM('4 Talie'!G24)</f>
-        <v>0</v>
-      </c>
     </row>
     <row r="5" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
@@ -981,30 +908,6 @@
         <f>SUM('3 Talie'!G25)</f>
         <v>-535</v>
       </c>
-      <c r="W5">
-        <f>SUM('4 Talie'!B25)</f>
-        <v>0</v>
-      </c>
-      <c r="X5">
-        <f>SUM('4 Talie'!C25)</f>
-        <v>0</v>
-      </c>
-      <c r="Y5">
-        <f>SUM('4 Talie'!D25)</f>
-        <v>0</v>
-      </c>
-      <c r="Z5">
-        <f>SUM('4 Talie'!E25)</f>
-        <v>0</v>
-      </c>
-      <c r="AA5" t="e">
-        <f>SUM('4 Talie'!F25)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AB5">
-        <f>SUM('4 Talie'!G25)</f>
-        <v>0</v>
-      </c>
     </row>
     <row r="6" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
@@ -1082,30 +985,6 @@
         <f>SUM('3 Talie'!G26)</f>
         <v>15</v>
       </c>
-      <c r="W6">
-        <f>SUM('4 Talie'!B26)</f>
-        <v>0</v>
-      </c>
-      <c r="X6">
-        <f>SUM('4 Talie'!C26)</f>
-        <v>0</v>
-      </c>
-      <c r="Y6">
-        <f>SUM('4 Talie'!D26)</f>
-        <v>0</v>
-      </c>
-      <c r="Z6">
-        <f>SUM('4 Talie'!E26)</f>
-        <v>0</v>
-      </c>
-      <c r="AA6" t="e">
-        <f>SUM('4 Talie'!F26)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AB6">
-        <f>SUM('4 Talie'!G26)</f>
-        <v>0</v>
-      </c>
     </row>
     <row r="7" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
@@ -1183,30 +1062,6 @@
         <f>SUM('3 Talie'!G27)</f>
         <v>-195</v>
       </c>
-      <c r="W7">
-        <f>SUM('4 Talie'!B27)</f>
-        <v>0</v>
-      </c>
-      <c r="X7">
-        <f>SUM('4 Talie'!C27)</f>
-        <v>0</v>
-      </c>
-      <c r="Y7">
-        <f>SUM('4 Talie'!D27)</f>
-        <v>0</v>
-      </c>
-      <c r="Z7">
-        <f>SUM('4 Talie'!E27)</f>
-        <v>0</v>
-      </c>
-      <c r="AA7" t="e">
-        <f>SUM('4 Talie'!F27)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AB7">
-        <f>SUM('4 Talie'!G27)</f>
-        <v>0</v>
-      </c>
     </row>
     <row r="8" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
@@ -1284,30 +1139,6 @@
         <f>SUM('3 Talie'!G28)</f>
         <v>90</v>
       </c>
-      <c r="W8">
-        <f>SUM('4 Talie'!B28)</f>
-        <v>0</v>
-      </c>
-      <c r="X8">
-        <f>SUM('4 Talie'!C28)</f>
-        <v>0</v>
-      </c>
-      <c r="Y8">
-        <f>SUM('4 Talie'!D28)</f>
-        <v>0</v>
-      </c>
-      <c r="Z8">
-        <f>SUM('4 Talie'!E28)</f>
-        <v>0</v>
-      </c>
-      <c r="AA8" t="e">
-        <f>SUM('4 Talie'!F28)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AB8">
-        <f>SUM('4 Talie'!G28)</f>
-        <v>0</v>
-      </c>
     </row>
     <row r="9" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
@@ -1385,30 +1216,6 @@
         <f>SUM('3 Talie'!G29)</f>
         <v>-55</v>
       </c>
-      <c r="W9">
-        <f>SUM('4 Talie'!B29)</f>
-        <v>0</v>
-      </c>
-      <c r="X9">
-        <f>SUM('4 Talie'!C29)</f>
-        <v>0</v>
-      </c>
-      <c r="Y9">
-        <f>SUM('4 Talie'!D29)</f>
-        <v>0</v>
-      </c>
-      <c r="Z9">
-        <f>SUM('4 Talie'!E29)</f>
-        <v>0</v>
-      </c>
-      <c r="AA9" t="e">
-        <f>SUM('4 Talie'!F29)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AB9">
-        <f>SUM('4 Talie'!G29)</f>
-        <v>0</v>
-      </c>
     </row>
     <row r="10" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
@@ -1486,30 +1293,6 @@
         <f>SUM('3 Talie'!G30)</f>
         <v>-30</v>
       </c>
-      <c r="W10">
-        <f>SUM('4 Talie'!B30)</f>
-        <v>0</v>
-      </c>
-      <c r="X10">
-        <f>SUM('4 Talie'!C30)</f>
-        <v>0</v>
-      </c>
-      <c r="Y10">
-        <f>SUM('4 Talie'!D30)</f>
-        <v>0</v>
-      </c>
-      <c r="Z10">
-        <f>SUM('4 Talie'!E30)</f>
-        <v>0</v>
-      </c>
-      <c r="AA10" t="e">
-        <f>SUM('4 Talie'!F30)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AB10">
-        <f>SUM('4 Talie'!G30)</f>
-        <v>0</v>
-      </c>
     </row>
     <row r="11" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
@@ -1587,30 +1370,6 @@
         <f>SUM('3 Talie'!G31)</f>
         <v>-25</v>
       </c>
-      <c r="W11">
-        <f>SUM('4 Talie'!B31)</f>
-        <v>0</v>
-      </c>
-      <c r="X11">
-        <f>SUM('4 Talie'!C31)</f>
-        <v>0</v>
-      </c>
-      <c r="Y11">
-        <f>SUM('4 Talie'!D31)</f>
-        <v>0</v>
-      </c>
-      <c r="Z11">
-        <f>SUM('4 Talie'!E31)</f>
-        <v>0</v>
-      </c>
-      <c r="AA11" t="e">
-        <f>SUM('4 Talie'!F31)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AB11">
-        <f>SUM('4 Talie'!G31)</f>
-        <v>0</v>
-      </c>
     </row>
     <row r="12" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
@@ -1688,30 +1447,6 @@
         <f>SUM('3 Talie'!G32)</f>
         <v>-195</v>
       </c>
-      <c r="W12">
-        <f>SUM('4 Talie'!B32)</f>
-        <v>0</v>
-      </c>
-      <c r="X12">
-        <f>SUM('4 Talie'!C32)</f>
-        <v>0</v>
-      </c>
-      <c r="Y12">
-        <f>SUM('4 Talie'!D32)</f>
-        <v>0</v>
-      </c>
-      <c r="Z12">
-        <f>SUM('4 Talie'!E32)</f>
-        <v>0</v>
-      </c>
-      <c r="AA12" t="e">
-        <f>SUM('4 Talie'!F32)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AB12">
-        <f>SUM('4 Talie'!G32)</f>
-        <v>0</v>
-      </c>
     </row>
     <row r="13" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
@@ -1789,30 +1524,6 @@
         <f>SUM('3 Talie'!G33)</f>
         <v>-345</v>
       </c>
-      <c r="W13">
-        <f>SUM('4 Talie'!B33)</f>
-        <v>0</v>
-      </c>
-      <c r="X13">
-        <f>SUM('4 Talie'!C33)</f>
-        <v>0</v>
-      </c>
-      <c r="Y13">
-        <f>SUM('4 Talie'!D33)</f>
-        <v>0</v>
-      </c>
-      <c r="Z13">
-        <f>SUM('4 Talie'!E33)</f>
-        <v>0</v>
-      </c>
-      <c r="AA13" t="e">
-        <f>SUM('4 Talie'!F33)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AB13">
-        <f>SUM('4 Talie'!G33)</f>
-        <v>0</v>
-      </c>
     </row>
     <row r="14" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
@@ -1889,30 +1600,6 @@
       <c r="U14">
         <f>SUM('3 Talie'!G34)</f>
         <v>1870</v>
-      </c>
-      <c r="W14">
-        <f>SUM('4 Talie'!B34)</f>
-        <v>0</v>
-      </c>
-      <c r="X14">
-        <f>SUM('4 Talie'!C34)</f>
-        <v>0</v>
-      </c>
-      <c r="Y14">
-        <f>SUM('4 Talie'!D34)</f>
-        <v>0</v>
-      </c>
-      <c r="Z14">
-        <f>SUM('4 Talie'!E34)</f>
-        <v>0</v>
-      </c>
-      <c r="AA14" t="e">
-        <f>SUM('4 Talie'!F34)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AB14">
-        <f>SUM('4 Talie'!G34)</f>
-        <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:28" x14ac:dyDescent="0.25">
@@ -2554,7 +2241,7 @@
   <dimension ref="A1:AP31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="AD2" sqref="AD2:AG14"/>
+      <selection activeCell="K27" sqref="K27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6049,7 +5736,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{702A2972-7330-4B7B-A555-957EB83058FC}">
   <dimension ref="A1:AB50"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D16" workbookViewId="0">
+    <sheetView topLeftCell="A16" workbookViewId="0">
       <selection activeCell="I51" sqref="I51"/>
     </sheetView>
   </sheetViews>
@@ -8628,1312 +8315,4 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EC024D11-A05D-4D78-AF56-9F7AC3169C89}">
-  <dimension ref="A1:U34"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="M24" sqref="M24"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="18.5703125" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="B1" t="s">
-        <v>13</v>
-      </c>
-      <c r="C1" t="s">
-        <v>14</v>
-      </c>
-      <c r="D1" t="s">
-        <v>15</v>
-      </c>
-      <c r="E1" t="s">
-        <v>16</v>
-      </c>
-      <c r="G1" t="s">
-        <v>17</v>
-      </c>
-      <c r="I1" t="s">
-        <v>13</v>
-      </c>
-      <c r="J1" t="s">
-        <v>14</v>
-      </c>
-      <c r="K1" t="s">
-        <v>15</v>
-      </c>
-      <c r="L1" t="s">
-        <v>16</v>
-      </c>
-      <c r="N1" t="s">
-        <v>17</v>
-      </c>
-      <c r="P1" t="s">
-        <v>13</v>
-      </c>
-      <c r="Q1" t="s">
-        <v>14</v>
-      </c>
-      <c r="R1" t="s">
-        <v>15</v>
-      </c>
-      <c r="S1" t="s">
-        <v>16</v>
-      </c>
-      <c r="U1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="2" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2">
-        <v>0</v>
-      </c>
-      <c r="C2">
-        <v>0</v>
-      </c>
-      <c r="D2">
-        <v>0</v>
-      </c>
-      <c r="E2">
-        <v>0</v>
-      </c>
-      <c r="F2" t="e">
-        <f>B2/(SUM(B2:D2))</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="G2">
-        <f>(B2-D2+E2/2)*10</f>
-        <v>0</v>
-      </c>
-      <c r="I2">
-        <v>0</v>
-      </c>
-      <c r="J2">
-        <v>0</v>
-      </c>
-      <c r="K2">
-        <v>0</v>
-      </c>
-      <c r="L2">
-        <v>0</v>
-      </c>
-      <c r="M2" t="e">
-        <f>I2/(SUM(I2:K2))</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="N2">
-        <f>(I2-K2+L2/2)*10</f>
-        <v>0</v>
-      </c>
-      <c r="P2">
-        <v>0</v>
-      </c>
-      <c r="Q2">
-        <v>0</v>
-      </c>
-      <c r="R2">
-        <v>0</v>
-      </c>
-      <c r="S2">
-        <v>0</v>
-      </c>
-      <c r="T2" t="e">
-        <f>P2/(SUM(P2:R2))</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="U2">
-        <f>(P2-R2+S2/2)*10</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B3">
-        <v>0</v>
-      </c>
-      <c r="C3">
-        <v>0</v>
-      </c>
-      <c r="D3">
-        <v>0</v>
-      </c>
-      <c r="E3">
-        <v>0</v>
-      </c>
-      <c r="F3" t="e">
-        <f t="shared" ref="F3:F14" si="0">B3/(SUM(B3:D3))</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="G3">
-        <f t="shared" ref="G3:G14" si="1">(B3-D3+E3/2)*10</f>
-        <v>0</v>
-      </c>
-      <c r="I3">
-        <v>0</v>
-      </c>
-      <c r="J3">
-        <v>0</v>
-      </c>
-      <c r="K3">
-        <v>0</v>
-      </c>
-      <c r="L3">
-        <v>0</v>
-      </c>
-      <c r="M3" t="e">
-        <f t="shared" ref="M3:M14" si="2">I3/(SUM(I3:K3))</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="N3">
-        <f t="shared" ref="N3:N14" si="3">(I3-K3+L3/2)*10</f>
-        <v>0</v>
-      </c>
-      <c r="P3">
-        <v>0</v>
-      </c>
-      <c r="Q3">
-        <v>0</v>
-      </c>
-      <c r="R3">
-        <v>0</v>
-      </c>
-      <c r="S3">
-        <v>0</v>
-      </c>
-      <c r="T3" t="e">
-        <f t="shared" ref="T3:T14" si="4">P3/(SUM(P3:R3))</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="U3">
-        <f t="shared" ref="U3:U14" si="5">(P3-R3+S3/2)*10</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>2</v>
-      </c>
-      <c r="B4">
-        <v>0</v>
-      </c>
-      <c r="C4">
-        <v>0</v>
-      </c>
-      <c r="D4">
-        <v>0</v>
-      </c>
-      <c r="E4">
-        <v>0</v>
-      </c>
-      <c r="F4" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="G4">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="I4">
-        <v>0</v>
-      </c>
-      <c r="J4">
-        <v>0</v>
-      </c>
-      <c r="K4">
-        <v>0</v>
-      </c>
-      <c r="L4">
-        <v>0</v>
-      </c>
-      <c r="M4" t="e">
-        <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="N4">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="P4">
-        <v>0</v>
-      </c>
-      <c r="Q4">
-        <v>0</v>
-      </c>
-      <c r="R4">
-        <v>0</v>
-      </c>
-      <c r="S4">
-        <v>0</v>
-      </c>
-      <c r="T4" t="e">
-        <f t="shared" si="4"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="U4">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>3</v>
-      </c>
-      <c r="B5">
-        <v>0</v>
-      </c>
-      <c r="C5">
-        <v>0</v>
-      </c>
-      <c r="D5">
-        <v>0</v>
-      </c>
-      <c r="E5">
-        <v>0</v>
-      </c>
-      <c r="F5" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="G5">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="I5">
-        <v>0</v>
-      </c>
-      <c r="J5">
-        <v>0</v>
-      </c>
-      <c r="K5">
-        <v>0</v>
-      </c>
-      <c r="L5">
-        <v>0</v>
-      </c>
-      <c r="M5" t="e">
-        <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="N5">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="P5">
-        <v>0</v>
-      </c>
-      <c r="Q5">
-        <v>0</v>
-      </c>
-      <c r="R5">
-        <v>0</v>
-      </c>
-      <c r="S5">
-        <v>0</v>
-      </c>
-      <c r="T5" t="e">
-        <f t="shared" si="4"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="U5">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>4</v>
-      </c>
-      <c r="B6">
-        <v>0</v>
-      </c>
-      <c r="C6">
-        <v>0</v>
-      </c>
-      <c r="D6">
-        <v>0</v>
-      </c>
-      <c r="E6">
-        <v>0</v>
-      </c>
-      <c r="F6" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="G6">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="I6">
-        <v>0</v>
-      </c>
-      <c r="J6">
-        <v>0</v>
-      </c>
-      <c r="K6">
-        <v>0</v>
-      </c>
-      <c r="L6">
-        <v>0</v>
-      </c>
-      <c r="M6" t="e">
-        <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="N6">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="P6">
-        <v>0</v>
-      </c>
-      <c r="Q6">
-        <v>0</v>
-      </c>
-      <c r="R6">
-        <v>0</v>
-      </c>
-      <c r="S6">
-        <v>0</v>
-      </c>
-      <c r="T6" t="e">
-        <f t="shared" si="4"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="U6">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>5</v>
-      </c>
-      <c r="B7">
-        <v>0</v>
-      </c>
-      <c r="C7">
-        <v>0</v>
-      </c>
-      <c r="D7">
-        <v>0</v>
-      </c>
-      <c r="E7">
-        <v>0</v>
-      </c>
-      <c r="F7" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="G7">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="I7">
-        <v>0</v>
-      </c>
-      <c r="J7">
-        <v>0</v>
-      </c>
-      <c r="K7">
-        <v>0</v>
-      </c>
-      <c r="L7">
-        <v>0</v>
-      </c>
-      <c r="M7" t="e">
-        <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="N7">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="P7">
-        <v>0</v>
-      </c>
-      <c r="Q7">
-        <v>0</v>
-      </c>
-      <c r="R7">
-        <v>0</v>
-      </c>
-      <c r="S7">
-        <v>0</v>
-      </c>
-      <c r="T7" t="e">
-        <f t="shared" si="4"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="U7">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>6</v>
-      </c>
-      <c r="B8">
-        <v>0</v>
-      </c>
-      <c r="C8">
-        <v>0</v>
-      </c>
-      <c r="D8">
-        <v>0</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
-      </c>
-      <c r="F8" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="G8">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="I8">
-        <v>0</v>
-      </c>
-      <c r="J8">
-        <v>0</v>
-      </c>
-      <c r="K8">
-        <v>0</v>
-      </c>
-      <c r="L8">
-        <v>0</v>
-      </c>
-      <c r="M8" t="e">
-        <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="N8">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="P8">
-        <v>0</v>
-      </c>
-      <c r="Q8">
-        <v>0</v>
-      </c>
-      <c r="R8">
-        <v>0</v>
-      </c>
-      <c r="S8">
-        <v>0</v>
-      </c>
-      <c r="T8" t="e">
-        <f t="shared" si="4"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="U8">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>7</v>
-      </c>
-      <c r="B9">
-        <v>0</v>
-      </c>
-      <c r="C9">
-        <v>0</v>
-      </c>
-      <c r="D9">
-        <v>0</v>
-      </c>
-      <c r="E9">
-        <v>0</v>
-      </c>
-      <c r="F9" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="G9">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="I9">
-        <v>0</v>
-      </c>
-      <c r="J9">
-        <v>0</v>
-      </c>
-      <c r="K9">
-        <v>0</v>
-      </c>
-      <c r="L9">
-        <v>0</v>
-      </c>
-      <c r="M9" t="e">
-        <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="N9">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="P9">
-        <v>0</v>
-      </c>
-      <c r="Q9">
-        <v>0</v>
-      </c>
-      <c r="R9">
-        <v>0</v>
-      </c>
-      <c r="S9">
-        <v>0</v>
-      </c>
-      <c r="T9" t="e">
-        <f t="shared" si="4"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="U9">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>8</v>
-      </c>
-      <c r="B10">
-        <v>0</v>
-      </c>
-      <c r="C10">
-        <v>0</v>
-      </c>
-      <c r="D10">
-        <v>0</v>
-      </c>
-      <c r="E10">
-        <v>0</v>
-      </c>
-      <c r="F10" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="G10">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="I10">
-        <v>0</v>
-      </c>
-      <c r="J10">
-        <v>0</v>
-      </c>
-      <c r="K10">
-        <v>0</v>
-      </c>
-      <c r="L10">
-        <v>0</v>
-      </c>
-      <c r="M10" t="e">
-        <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="N10">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="P10">
-        <v>0</v>
-      </c>
-      <c r="Q10">
-        <v>0</v>
-      </c>
-      <c r="R10">
-        <v>0</v>
-      </c>
-      <c r="S10">
-        <v>0</v>
-      </c>
-      <c r="T10" t="e">
-        <f t="shared" si="4"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="U10">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>9</v>
-      </c>
-      <c r="B11">
-        <v>0</v>
-      </c>
-      <c r="C11">
-        <v>0</v>
-      </c>
-      <c r="D11">
-        <v>0</v>
-      </c>
-      <c r="E11">
-        <v>0</v>
-      </c>
-      <c r="F11" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="G11">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="I11">
-        <v>0</v>
-      </c>
-      <c r="J11">
-        <v>0</v>
-      </c>
-      <c r="K11">
-        <v>0</v>
-      </c>
-      <c r="L11">
-        <v>0</v>
-      </c>
-      <c r="M11" t="e">
-        <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="N11">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="P11">
-        <v>0</v>
-      </c>
-      <c r="Q11">
-        <v>0</v>
-      </c>
-      <c r="R11">
-        <v>0</v>
-      </c>
-      <c r="S11">
-        <v>0</v>
-      </c>
-      <c r="T11" t="e">
-        <f t="shared" si="4"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="U11">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>10</v>
-      </c>
-      <c r="B12">
-        <v>0</v>
-      </c>
-      <c r="C12">
-        <v>0</v>
-      </c>
-      <c r="D12">
-        <v>0</v>
-      </c>
-      <c r="E12">
-        <v>0</v>
-      </c>
-      <c r="F12" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="G12">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="I12">
-        <v>0</v>
-      </c>
-      <c r="J12">
-        <v>0</v>
-      </c>
-      <c r="K12">
-        <v>0</v>
-      </c>
-      <c r="L12">
-        <v>0</v>
-      </c>
-      <c r="M12" t="e">
-        <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="N12">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="P12">
-        <v>0</v>
-      </c>
-      <c r="Q12">
-        <v>0</v>
-      </c>
-      <c r="R12">
-        <v>0</v>
-      </c>
-      <c r="S12">
-        <v>0</v>
-      </c>
-      <c r="T12" t="e">
-        <f t="shared" si="4"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="U12">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>11</v>
-      </c>
-      <c r="B13">
-        <v>0</v>
-      </c>
-      <c r="C13">
-        <v>0</v>
-      </c>
-      <c r="D13">
-        <v>0</v>
-      </c>
-      <c r="E13">
-        <v>0</v>
-      </c>
-      <c r="F13" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="G13">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="I13">
-        <v>0</v>
-      </c>
-      <c r="J13">
-        <v>0</v>
-      </c>
-      <c r="K13">
-        <v>0</v>
-      </c>
-      <c r="L13">
-        <v>0</v>
-      </c>
-      <c r="M13" t="e">
-        <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="N13">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="P13">
-        <v>0</v>
-      </c>
-      <c r="Q13">
-        <v>0</v>
-      </c>
-      <c r="R13">
-        <v>0</v>
-      </c>
-      <c r="S13">
-        <v>0</v>
-      </c>
-      <c r="T13" t="e">
-        <f t="shared" si="4"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="U13">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>12</v>
-      </c>
-      <c r="B14">
-        <v>0</v>
-      </c>
-      <c r="C14">
-        <v>0</v>
-      </c>
-      <c r="D14">
-        <v>0</v>
-      </c>
-      <c r="E14">
-        <v>0</v>
-      </c>
-      <c r="F14" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="G14">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="I14">
-        <v>0</v>
-      </c>
-      <c r="J14">
-        <v>0</v>
-      </c>
-      <c r="K14">
-        <v>0</v>
-      </c>
-      <c r="L14">
-        <v>0</v>
-      </c>
-      <c r="M14" t="e">
-        <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="N14">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="P14">
-        <v>0</v>
-      </c>
-      <c r="Q14">
-        <v>0</v>
-      </c>
-      <c r="R14">
-        <v>0</v>
-      </c>
-      <c r="S14">
-        <v>0</v>
-      </c>
-      <c r="T14" t="e">
-        <f t="shared" si="4"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="U14">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A21" s="1"/>
-      <c r="B21" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="C21" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="D21" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="E21" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="F21" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="G21" s="1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A22" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B22" s="1">
-        <f>B2+I2+P2</f>
-        <v>0</v>
-      </c>
-      <c r="C22" s="1">
-        <f t="shared" ref="C22:E34" si="6">C2+J2+Q2</f>
-        <v>0</v>
-      </c>
-      <c r="D22" s="1">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="E22" s="1">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="F22" s="1" t="e">
-        <f>B22/(SUM(B22:D22))</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="G22" s="1">
-        <f>(B22-D22+E22/2)*10</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A23" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B23" s="1">
-        <f t="shared" ref="B23:B34" si="7">B3+I3+P3</f>
-        <v>0</v>
-      </c>
-      <c r="C23" s="1">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="D23" s="1">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="E23" s="1">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="F23" s="1" t="e">
-        <f t="shared" ref="F23:F34" si="8">B23/(SUM(B23:D23))</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="G23" s="1">
-        <f t="shared" ref="G23:G34" si="9">(B23-D23+E23/2)*10</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A24" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B24" s="1">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="C24" s="1">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="D24" s="1">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="E24" s="1">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="F24" s="1" t="e">
-        <f t="shared" si="8"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="G24" s="1">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A25" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B25" s="1">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="C25" s="1">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="D25" s="1">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="E25" s="1">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="F25" s="1" t="e">
-        <f t="shared" si="8"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="G25" s="1">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A26" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B26" s="1">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="C26" s="1">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="D26" s="1">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="E26" s="1">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="F26" s="1" t="e">
-        <f t="shared" si="8"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="G26" s="1">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A27" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B27" s="1">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="C27" s="1">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="D27" s="1">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="E27" s="1">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="F27" s="1" t="e">
-        <f t="shared" si="8"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="G27" s="1">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A28" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B28" s="1">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="C28" s="1">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="D28" s="1">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="E28" s="1">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="F28" s="1" t="e">
-        <f t="shared" si="8"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="G28" s="1">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A29" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B29" s="1">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="C29" s="1">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="D29" s="1">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="E29" s="1">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="F29" s="1" t="e">
-        <f t="shared" si="8"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="G29" s="1">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A30" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B30" s="1">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="C30" s="1">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="D30" s="1">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="E30" s="1">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="F30" s="1" t="e">
-        <f t="shared" si="8"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="G30" s="1">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A31" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B31" s="1">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="C31" s="1">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="D31" s="1">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="E31" s="1">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="F31" s="1" t="e">
-        <f t="shared" si="8"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="G31" s="1">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A32" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B32" s="1">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="C32" s="1">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="D32" s="1">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="E32" s="1">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="F32" s="1" t="e">
-        <f t="shared" si="8"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="G32" s="1">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A33" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B33" s="1">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="C33" s="1">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="D33" s="1">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="E33" s="1">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="F33" s="1" t="e">
-        <f t="shared" si="8"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="G33" s="1">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A34" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B34" s="1">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="C34" s="1">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="D34" s="1">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="E34" s="1">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="F34" s="1" t="e">
-        <f t="shared" si="8"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="G34" s="1">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>